--- a/data/gpt_examples/WVS_examples.xlsx
+++ b/data/gpt_examples/WVS_examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beimn\Documents\workdir\wvs\wvs-chat\data\gpt_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amy\Desktop\Green_Git\twelve-gpt-educational\data\gpt_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B4857C-6CC2-478A-A52F-0F5329D7805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E88423-ECD0-4121-8CD1-3C691642727C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>user</t>
   </si>
@@ -28,22 +28,46 @@
     <t>assistant</t>
   </si>
   <si>
-    <t xml:space="preserve"> ```Here is a statistical description of the core values of China. 
-China scored very low in traditional vs secular values compared to other countries in the same survey. China scored above average in survival vs self-expression values compared to other countries in the same survey. China scored very low in neutrality compared to other countries in the same survey. China scored below average in fairness compared to other countries in the same survey. China scored extremely high in skeptisism compared to other countries in the same survey. China scored average in societal tranquility compared to other countries in the same survey.```</t>
+    <t>Australia stands out for having a far above average value of self-expression compared to other countries. A contributing factor being that on average survey participants did not mentioned homosexuals as neighbors they would not like to have, indicating tolerance in Australian society. 
+Australia also has above average secular values compared to other countries. This was in part due to, on average, a low emphasis on encouragement of religious faith in children. Australia was found to be below averagely neutral compared to other countries, while scoring above average in fairness and tranquillity compared to other countries. On average, Australians believe that stealing property is never justifiable and are not worried about civil war, contributing to the fairness and tranquillity scores, respectively. Australia was found to be neither skeptical nor trusting of institutions compared to other countries in the same survey.</t>
   </si>
   <si>
-    <t>```Here is a statistical description of the core values of Iran. 
-Iran scored above average in traditional vs secular values compared to other countries in the same survey. Iran scored very low in survival vs self-expression values compared to other countries in the same survey. Iran scored average in neutrality compared to other countries in the same survey. Iran scored average in fairness compared to other countries in the same survey. Iran scored above average in skeptisism compared to other countries in the same survey. Iran scored very low in societal tranquility compared to other countries in the same survey. ```"</t>
+    <t>Now do the same thing with the following: ```Here is a statistical description of the core values of Australia. 
+Australia was found to have above average secular values compared to other countries in the same survey. In response to the question 'Here is a list of qualities that children can be encouraged to learn at home. Which, if any, do you consider to be especially important?', on average participants  'did not mentioned' children's religious faith as especially important. 
+Australia was found to value self-expression far above average compared to other countries in the same survey. In response to the question 'On this list are various groups of people. Could you please mention any that you would not like to have as neighbors?', on average participants  'did not mentioned' homosexuals as neighbors they would not like to have. 
+Australia was found to be below averagely neutral compared to other countries in the same survey. In response to the question 'Are you a member of a professional organization?', on average participants indicated that they 'don't belong' . 
+Australia was found to have an above average value of fairness compared to other countries in the same survey. In response to the question 'Please tell me for each of the following actions whether you think it can always be justified, never be justified, or something in between: Stealing property', on average participants indicated that it is 'almost never justifiable' . 
+Australia was found to be neither skeptical nor trusting compared to other countries in the same survey. 
+Australia was found to be above averagely tranquil compared to other countries in the same survey. In response to the question 'To what degree are you worried about the following situations? A civil war', on average participants indicated that they worry 'not at all' . 
+```</t>
   </si>
   <si>
-    <t>Iran scored above average on the traditional versus secular index compared to other countries, suggesting a gradual shift towards more secular and rational values. While religion, family, and parent-child relationships still play a role in society, they appear to be becoming less central. There also seems to be a growing openness to social issues like divorce, abortion, euthanasia, and suicide, in contrast to more traditional societies.
-However, Iran's very low score on the survival versus self-expression index indicates a stronger focus on economic and physical security over issues like self-expression, tolerance, equality, and environmental concerns. This could also be reflected in lower levels of social trust and tolerance overall. Additionally, Iranians appear to have limited engagement with consumer, humanitarian, or professional organizations.
-The population seems divided on ethical issues such as theft, bribery, tax evasion, and even violence, with varying opinions on their acceptability. Iran also scored high in skepticism, particularly toward institutions like the government, parliament, courts, and political parties. Lastly, Iranians are deeply concerned about the potential threats of war, terrorism, and inadequate living conditions, as reflected by the country's low score on the societal tranquility index.</t>
+    <t>Now do the same thing with the following: ```Here is a statistical description of the core values of Argentina. 
+Argentina was found to have neither strongly traditional nor strongly secular values compared to other countries in the same survey. 
+Argentina was found to have a above average value of self-expression compared to other countries in the same survey. In response to the question 'On this list are various groups of people. Could you please mention any that you would not like to have as neighbors?', on average participants  'did not mentioned' homosexuals as neighbors they would not like to have. 
+Argentina was found to be above averagely neutral compared to other countries in the same survey. In response to the question 'Are you a member of a consumer organization?', on average participants indicated that they 'are an inactive member' . 
+Argentina was found to value fairness averagely compared to other countries in the same survey. 
+Argentina was found to be above averagely skeptical compared to other countries in the same survey. In response to the question 'How much confidence do you have in political parties?', on average participants indicated that they have 'none at all' . 
+Argentina was found to be above averagely tranquil compared to other countries in the same survey. In response to the question 'To what degree are you worried about the following situations? A civil war', on average participants indicated that they worry 'not much' . 
+```</t>
   </si>
   <si>
-    <t>China's score on the traditional versus secular index was relatively low compared to other countries, reflecting a cultural emphasis on values like family authority, religious traditions, and strong parent-child relationships. Social issues such as divorce, abortion, and euthanasia tend to be viewed more conservatively, while national pride and a sense of nationalism remain significant.
-On the survival versus self-expression index, China's higher score suggests progress toward gender equality, greater acceptance of diverse groups including foreigners and the LGBTQ+ community, and increasing calls for participation in both economic and political decisions. There is also growing attention to environmental protection.
-However, China scored below average in terms of neutrality, indicating that citizens are less likely to actively engage in consumer, environmental, or humanitarian organizations. Additionally, certain ethical concerns, such as issues surrounding theft, bribery, and tax evasion, seem to provoke less disapproval. There also appears to be less anxiety about potential threats like war, terrorism, or other forms of civil unrest.</t>
+    <t>Argentina does not stand out in any particular metric. Argentina scores above average in self-expression compared to other countries. This was evident in the fact that survey participants, on average, did not mention homosexuals as neighbors they would not like to have, indicating a high level of tolerance.
+Argentina was found to have neither strongly traditional nor secular values, while scoring above average in neutrality, scepticism, and tranquillity compared to other countries in the same survey. This suggests a society with a moderate level of religiosity, low engagement in civic life, a lack of trust in institutions, but a relative lack of worry over civil unrest.</t>
+  </si>
+  <si>
+    <t>Egypt stands out with significantly above average traditional values compared to other countries. This is evident in the survey finding that God is considered "very important" by the average participant. Egypt is also strikingly high in skepticism, with citizens indicating a complete lack of confidence in political parties.
+Egypt has an above average survival-oriented values, as seen in participants strongly agreeing that work is a duty towards society. The country is above average in both neutrality and fairness compared to other countries. While participants are not very active in consumer organizations, they firmly believe that stealing property is “almost never justifiable”. Egypt holds an average level of tranquility compared to other countries in the survey.</t>
+  </si>
+  <si>
+    <t>Now do the same thing with the following: ```Here is a statistical description of the core values of Egypt. 
+Egypt was found to have far above average traditional values compared to other countries in the same survey. In response to the question 'How important is God in your life?', on average participants indicated God to be 'very important' in their life. 
+Egypt was found to have above average survival orientated values compared to other countries in the same survey. In response to the question 'Do you think that work is a duty towards society?', on average participants indicating that they 'agree strongly' . 
+Egypt was found to be above averagely neutral compared to other countries in the same survey. In response to the question 'Are you a member of a consumer organization?', on average participants indicated that they 'are an inactive member' . 
+Egypt was found to have an above average value of fairness compared to other countries in the same survey. In response to the question 'Please tell me for each of the following actions whether you think it can always be justified, never be justified, or something in between: Stealing property', on average participants indicated that it is 'almost never justifiable' . 
+Egypt was found to be far averagely skeptical compared to other countries in the same survey. In response to the question 'How much confidence do you have in political parties?', on average participants indicated that they have 'none at all' . 
+Egypt was found to be averagely tranquil compared to other countries in the same survey. 
+```</t>
   </si>
 </sst>
 </file>
@@ -1307,20 +1331,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.21875" style="1" customWidth="1"/>
-    <col min="3" max="20" width="8.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="14.44140625" style="1"/>
+    <col min="2" max="2" width="87.1796875" style="1" customWidth="1"/>
+    <col min="3" max="20" width="8.6328125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.453125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1346,12 +1370,12 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1372,12 +1396,12 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1398,9 +1422,13 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+    <row r="4" spans="1:20" ht="162" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1420,7 +1448,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
@@ -1442,7 +1470,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
@@ -1464,7 +1492,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4"/>
@@ -1486,7 +1514,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
@@ -1508,7 +1536,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
@@ -1530,7 +1558,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
@@ -1552,7 +1580,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
@@ -1574,7 +1602,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4"/>
@@ -1596,7 +1624,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4"/>
@@ -1618,7 +1646,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="4"/>
@@ -1640,7 +1668,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
@@ -1662,7 +1690,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
@@ -1684,7 +1712,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
@@ -1706,7 +1734,7 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
@@ -1728,7 +1756,7 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
@@ -1750,7 +1778,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
@@ -1772,7 +1800,7 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
@@ -1794,7 +1822,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
@@ -1816,7 +1844,7 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
@@ -1838,7 +1866,7 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
@@ -1860,7 +1888,7 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="4"/>
@@ -1882,7 +1910,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
@@ -1904,7 +1932,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="4"/>
@@ -1926,7 +1954,7 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
@@ -1948,7 +1976,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="4"/>
@@ -1970,7 +1998,7 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
@@ -1992,7 +2020,7 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="4"/>
@@ -2014,7 +2042,7 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
@@ -2036,7 +2064,7 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
@@ -2058,7 +2086,7 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
@@ -2080,7 +2108,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
@@ -2102,7 +2130,7 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
-    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
@@ -2124,7 +2152,7 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
     </row>
-    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
@@ -2146,7 +2174,7 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
     </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
@@ -2168,7 +2196,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
     </row>
-    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="4"/>
@@ -2190,7 +2218,7 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
@@ -2212,7 +2240,7 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="4"/>
@@ -2234,7 +2262,7 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
     </row>
-    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
@@ -2256,7 +2284,7 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
     </row>
-    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="4"/>
@@ -2278,7 +2306,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
@@ -2300,7 +2328,7 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="4"/>
@@ -2322,7 +2350,7 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
     </row>
-    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
@@ -2344,7 +2372,7 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
@@ -2366,7 +2394,7 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
     </row>
-    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
@@ -2388,7 +2416,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
     </row>
-    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="4"/>
@@ -2410,7 +2438,7 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
     </row>
-    <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
@@ -2432,7 +2460,7 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
     </row>
-    <row r="51" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="4"/>
@@ -2454,7 +2482,7 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
@@ -2476,7 +2504,7 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
     </row>
-    <row r="53" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="4"/>
@@ -2498,7 +2526,7 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
     </row>
-    <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
@@ -2520,7 +2548,7 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
     </row>
-    <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="4"/>
@@ -2542,7 +2570,7 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
     </row>
-    <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
@@ -2564,7 +2592,7 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
     </row>
-    <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="4"/>
@@ -2586,7 +2614,7 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
     </row>
-    <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
@@ -2608,7 +2636,7 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="4"/>
@@ -2630,7 +2658,7 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
@@ -2652,7 +2680,7 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
     </row>
-    <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
@@ -2674,7 +2702,7 @@
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
@@ -2696,7 +2724,7 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
@@ -2718,7 +2746,7 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
@@ -2740,7 +2768,7 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
     </row>
-    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
@@ -2762,7 +2790,7 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
@@ -2784,7 +2812,7 @@
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
     </row>
-    <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
@@ -2806,7 +2834,7 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
     </row>
-    <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
@@ -2828,7 +2856,7 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
     </row>
-    <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
@@ -2850,7 +2878,7 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
     </row>
-    <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="4"/>
@@ -2872,7 +2900,7 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
     </row>
-    <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="4"/>
@@ -2894,7 +2922,7 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
     </row>
-    <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="4"/>
@@ -2916,7 +2944,7 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
     </row>
-    <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="4"/>
@@ -2938,7 +2966,7 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
     </row>
-    <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="4"/>
@@ -2960,7 +2988,7 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
     </row>
-    <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="4"/>
@@ -2982,7 +3010,7 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
     </row>
-    <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="4"/>
@@ -3004,7 +3032,7 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
     </row>
-    <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="4"/>
@@ -3026,7 +3054,7 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
     </row>
-    <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
@@ -3048,7 +3076,7 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
     </row>
-    <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="4"/>
@@ -3070,7 +3098,7 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
     </row>
-    <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="4"/>
@@ -3092,7 +3120,7 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
     </row>
-    <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4"/>
@@ -3114,7 +3142,7 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
     </row>
-    <row r="82" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
@@ -3136,7 +3164,7 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
     </row>
-    <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="4"/>
@@ -3158,7 +3186,7 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
     </row>
-    <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
@@ -3180,7 +3208,7 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
     </row>
-    <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="4"/>
@@ -3202,7 +3230,7 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
     </row>
-    <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
@@ -3224,7 +3252,7 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
     </row>
-    <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="4"/>
@@ -3246,7 +3274,7 @@
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
     </row>
-    <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="4"/>
@@ -3268,7 +3296,7 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
     </row>
-    <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4"/>
@@ -3290,7 +3318,7 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
     </row>
-    <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
@@ -3312,7 +3340,7 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
     </row>
-    <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="4"/>
@@ -3334,7 +3362,7 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
     </row>
-    <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="4"/>
@@ -3356,7 +3384,7 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
     </row>
-    <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="4"/>
@@ -3378,7 +3406,7 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
     </row>
-    <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="4"/>
@@ -3400,7 +3428,7 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
     </row>
-    <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="4"/>
@@ -3422,7 +3450,7 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
     </row>
-    <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
@@ -3444,7 +3472,7 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
     </row>
-    <row r="97" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="4"/>
@@ -3466,7 +3494,7 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
     </row>
-    <row r="98" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
@@ -3488,7 +3516,7 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
     </row>
-    <row r="99" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="4"/>
@@ -3510,7 +3538,7 @@
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
     </row>
-    <row r="100" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
@@ -3532,7 +3560,7 @@
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
     </row>
-    <row r="101" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="4"/>
@@ -3554,7 +3582,7 @@
       <c r="S101" s="4"/>
       <c r="T101" s="4"/>
     </row>
-    <row r="102" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="4"/>
@@ -3576,7 +3604,7 @@
       <c r="S102" s="4"/>
       <c r="T102" s="4"/>
     </row>
-    <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="4"/>
@@ -3598,7 +3626,7 @@
       <c r="S103" s="4"/>
       <c r="T103" s="4"/>
     </row>
-    <row r="104" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="4"/>
@@ -3620,7 +3648,7 @@
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
     </row>
-    <row r="105" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="4"/>
@@ -3642,7 +3670,7 @@
       <c r="S105" s="4"/>
       <c r="T105" s="4"/>
     </row>
-    <row r="106" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="4"/>
@@ -3664,7 +3692,7 @@
       <c r="S106" s="4"/>
       <c r="T106" s="4"/>
     </row>
-    <row r="107" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="4"/>
@@ -3686,7 +3714,7 @@
       <c r="S107" s="4"/>
       <c r="T107" s="4"/>
     </row>
-    <row r="108" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="4"/>
@@ -3708,7 +3736,7 @@
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
     </row>
-    <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="4"/>
@@ -3730,7 +3758,7 @@
       <c r="S109" s="4"/>
       <c r="T109" s="4"/>
     </row>
-    <row r="110" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="4"/>
@@ -3752,7 +3780,7 @@
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
     </row>
-    <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="4"/>
@@ -3774,7 +3802,7 @@
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
     </row>
-    <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="4"/>
@@ -3796,7 +3824,7 @@
       <c r="S112" s="4"/>
       <c r="T112" s="4"/>
     </row>
-    <row r="113" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="4"/>
@@ -3818,7 +3846,7 @@
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
     </row>
-    <row r="114" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="4"/>
@@ -3840,7 +3868,7 @@
       <c r="S114" s="4"/>
       <c r="T114" s="4"/>
     </row>
-    <row r="115" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="4"/>
@@ -3862,7 +3890,7 @@
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
     </row>
-    <row r="116" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="4"/>
@@ -3884,7 +3912,7 @@
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
     </row>
-    <row r="117" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="4"/>
@@ -3906,7 +3934,7 @@
       <c r="S117" s="4"/>
       <c r="T117" s="4"/>
     </row>
-    <row r="118" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="4"/>
@@ -3928,7 +3956,7 @@
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
     </row>
-    <row r="119" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="4"/>
@@ -3950,7 +3978,7 @@
       <c r="S119" s="4"/>
       <c r="T119" s="4"/>
     </row>
-    <row r="120" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="4"/>
@@ -3972,7 +4000,7 @@
       <c r="S120" s="4"/>
       <c r="T120" s="4"/>
     </row>
-    <row r="121" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="4"/>
@@ -3994,7 +4022,7 @@
       <c r="S121" s="4"/>
       <c r="T121" s="4"/>
     </row>
-    <row r="122" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="4"/>
@@ -4016,7 +4044,7 @@
       <c r="S122" s="4"/>
       <c r="T122" s="4"/>
     </row>
-    <row r="123" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="4"/>
@@ -4038,7 +4066,7 @@
       <c r="S123" s="4"/>
       <c r="T123" s="4"/>
     </row>
-    <row r="124" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="4"/>
@@ -4060,7 +4088,7 @@
       <c r="S124" s="4"/>
       <c r="T124" s="4"/>
     </row>
-    <row r="125" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="4"/>
@@ -4082,7 +4110,7 @@
       <c r="S125" s="4"/>
       <c r="T125" s="4"/>
     </row>
-    <row r="126" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="4"/>
@@ -4104,7 +4132,7 @@
       <c r="S126" s="4"/>
       <c r="T126" s="4"/>
     </row>
-    <row r="127" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="4"/>
@@ -4126,7 +4154,7 @@
       <c r="S127" s="4"/>
       <c r="T127" s="4"/>
     </row>
-    <row r="128" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="4"/>
@@ -4148,7 +4176,7 @@
       <c r="S128" s="4"/>
       <c r="T128" s="4"/>
     </row>
-    <row r="129" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="4"/>
@@ -4170,7 +4198,7 @@
       <c r="S129" s="4"/>
       <c r="T129" s="4"/>
     </row>
-    <row r="130" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="4"/>
@@ -4192,7 +4220,7 @@
       <c r="S130" s="4"/>
       <c r="T130" s="4"/>
     </row>
-    <row r="131" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="4"/>
@@ -4214,7 +4242,7 @@
       <c r="S131" s="4"/>
       <c r="T131" s="4"/>
     </row>
-    <row r="132" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="4"/>
@@ -4236,7 +4264,7 @@
       <c r="S132" s="4"/>
       <c r="T132" s="4"/>
     </row>
-    <row r="133" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="4"/>
@@ -4258,7 +4286,7 @@
       <c r="S133" s="4"/>
       <c r="T133" s="4"/>
     </row>
-    <row r="134" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="4"/>
@@ -4280,7 +4308,7 @@
       <c r="S134" s="4"/>
       <c r="T134" s="4"/>
     </row>
-    <row r="135" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="4"/>
@@ -4302,7 +4330,7 @@
       <c r="S135" s="4"/>
       <c r="T135" s="4"/>
     </row>
-    <row r="136" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="4"/>
@@ -4324,7 +4352,7 @@
       <c r="S136" s="4"/>
       <c r="T136" s="4"/>
     </row>
-    <row r="137" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="4"/>
@@ -4346,7 +4374,7 @@
       <c r="S137" s="4"/>
       <c r="T137" s="4"/>
     </row>
-    <row r="138" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="4"/>
@@ -4368,7 +4396,7 @@
       <c r="S138" s="4"/>
       <c r="T138" s="4"/>
     </row>
-    <row r="139" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="4"/>
@@ -4390,7 +4418,7 @@
       <c r="S139" s="4"/>
       <c r="T139" s="4"/>
     </row>
-    <row r="140" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="4"/>
@@ -4412,7 +4440,7 @@
       <c r="S140" s="4"/>
       <c r="T140" s="4"/>
     </row>
-    <row r="141" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="4"/>
@@ -4434,7 +4462,7 @@
       <c r="S141" s="4"/>
       <c r="T141" s="4"/>
     </row>
-    <row r="142" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="4"/>
@@ -4456,7 +4484,7 @@
       <c r="S142" s="4"/>
       <c r="T142" s="4"/>
     </row>
-    <row r="143" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="4"/>
@@ -4478,7 +4506,7 @@
       <c r="S143" s="4"/>
       <c r="T143" s="4"/>
     </row>
-    <row r="144" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="4"/>
@@ -4500,7 +4528,7 @@
       <c r="S144" s="4"/>
       <c r="T144" s="4"/>
     </row>
-    <row r="145" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="4"/>
@@ -4522,7 +4550,7 @@
       <c r="S145" s="4"/>
       <c r="T145" s="4"/>
     </row>
-    <row r="146" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="4"/>
@@ -4544,7 +4572,7 @@
       <c r="S146" s="4"/>
       <c r="T146" s="4"/>
     </row>
-    <row r="147" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="4"/>
@@ -4566,7 +4594,7 @@
       <c r="S147" s="4"/>
       <c r="T147" s="4"/>
     </row>
-    <row r="148" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="4"/>
@@ -4588,7 +4616,7 @@
       <c r="S148" s="4"/>
       <c r="T148" s="4"/>
     </row>
-    <row r="149" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="4"/>
@@ -4610,7 +4638,7 @@
       <c r="S149" s="4"/>
       <c r="T149" s="4"/>
     </row>
-    <row r="150" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4"/>
@@ -4632,7 +4660,7 @@
       <c r="S150" s="4"/>
       <c r="T150" s="4"/>
     </row>
-    <row r="151" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4"/>
@@ -4654,7 +4682,7 @@
       <c r="S151" s="4"/>
       <c r="T151" s="4"/>
     </row>
-    <row r="152" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="4"/>
@@ -4676,7 +4704,7 @@
       <c r="S152" s="4"/>
       <c r="T152" s="4"/>
     </row>
-    <row r="153" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="4"/>
@@ -4698,7 +4726,7 @@
       <c r="S153" s="4"/>
       <c r="T153" s="4"/>
     </row>
-    <row r="154" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="4"/>
@@ -4720,7 +4748,7 @@
       <c r="S154" s="4"/>
       <c r="T154" s="4"/>
     </row>
-    <row r="155" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="4"/>
@@ -4742,7 +4770,7 @@
       <c r="S155" s="4"/>
       <c r="T155" s="4"/>
     </row>
-    <row r="156" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="4"/>
@@ -4764,7 +4792,7 @@
       <c r="S156" s="4"/>
       <c r="T156" s="4"/>
     </row>
-    <row r="157" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="4"/>
@@ -4786,7 +4814,7 @@
       <c r="S157" s="4"/>
       <c r="T157" s="4"/>
     </row>
-    <row r="158" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4"/>
@@ -4808,7 +4836,7 @@
       <c r="S158" s="4"/>
       <c r="T158" s="4"/>
     </row>
-    <row r="159" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4"/>
@@ -4830,7 +4858,7 @@
       <c r="S159" s="4"/>
       <c r="T159" s="4"/>
     </row>
-    <row r="160" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4"/>
@@ -4852,7 +4880,7 @@
       <c r="S160" s="4"/>
       <c r="T160" s="4"/>
     </row>
-    <row r="161" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4"/>
@@ -4874,7 +4902,7 @@
       <c r="S161" s="4"/>
       <c r="T161" s="4"/>
     </row>
-    <row r="162" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="4"/>
@@ -4896,7 +4924,7 @@
       <c r="S162" s="4"/>
       <c r="T162" s="4"/>
     </row>
-    <row r="163" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="4"/>
@@ -4918,7 +4946,7 @@
       <c r="S163" s="4"/>
       <c r="T163" s="4"/>
     </row>
-    <row r="164" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="4"/>
@@ -4940,7 +4968,7 @@
       <c r="S164" s="4"/>
       <c r="T164" s="4"/>
     </row>
-    <row r="165" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="4"/>
@@ -4962,7 +4990,7 @@
       <c r="S165" s="4"/>
       <c r="T165" s="4"/>
     </row>
-    <row r="166" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="4"/>
@@ -4984,7 +5012,7 @@
       <c r="S166" s="4"/>
       <c r="T166" s="4"/>
     </row>
-    <row r="167" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="4"/>
@@ -5006,7 +5034,7 @@
       <c r="S167" s="4"/>
       <c r="T167" s="4"/>
     </row>
-    <row r="168" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="4"/>
@@ -5028,7 +5056,7 @@
       <c r="S168" s="4"/>
       <c r="T168" s="4"/>
     </row>
-    <row r="169" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="4"/>
@@ -5050,7 +5078,7 @@
       <c r="S169" s="4"/>
       <c r="T169" s="4"/>
     </row>
-    <row r="170" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="4"/>
@@ -5072,7 +5100,7 @@
       <c r="S170" s="4"/>
       <c r="T170" s="4"/>
     </row>
-    <row r="171" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="4"/>
@@ -5094,7 +5122,7 @@
       <c r="S171" s="4"/>
       <c r="T171" s="4"/>
     </row>
-    <row r="172" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4"/>
@@ -5116,7 +5144,7 @@
       <c r="S172" s="4"/>
       <c r="T172" s="4"/>
     </row>
-    <row r="173" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4"/>
@@ -5138,7 +5166,7 @@
       <c r="S173" s="4"/>
       <c r="T173" s="4"/>
     </row>
-    <row r="174" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="4"/>
@@ -5160,7 +5188,7 @@
       <c r="S174" s="4"/>
       <c r="T174" s="4"/>
     </row>
-    <row r="175" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="4"/>
@@ -5182,7 +5210,7 @@
       <c r="S175" s="4"/>
       <c r="T175" s="4"/>
     </row>
-    <row r="176" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="4"/>
@@ -5204,7 +5232,7 @@
       <c r="S176" s="4"/>
       <c r="T176" s="4"/>
     </row>
-    <row r="177" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="4"/>
@@ -5226,7 +5254,7 @@
       <c r="S177" s="4"/>
       <c r="T177" s="4"/>
     </row>
-    <row r="178" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="4"/>
@@ -5248,7 +5276,7 @@
       <c r="S178" s="4"/>
       <c r="T178" s="4"/>
     </row>
-    <row r="179" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4"/>
@@ -5270,7 +5298,7 @@
       <c r="S179" s="4"/>
       <c r="T179" s="4"/>
     </row>
-    <row r="180" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="4"/>
@@ -5292,7 +5320,7 @@
       <c r="S180" s="4"/>
       <c r="T180" s="4"/>
     </row>
-    <row r="181" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4"/>
@@ -5314,7 +5342,7 @@
       <c r="S181" s="4"/>
       <c r="T181" s="4"/>
     </row>
-    <row r="182" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4"/>
@@ -5336,7 +5364,7 @@
       <c r="S182" s="4"/>
       <c r="T182" s="4"/>
     </row>
-    <row r="183" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="4"/>
@@ -5358,7 +5386,7 @@
       <c r="S183" s="4"/>
       <c r="T183" s="4"/>
     </row>
-    <row r="184" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="4"/>
@@ -5380,7 +5408,7 @@
       <c r="S184" s="4"/>
       <c r="T184" s="4"/>
     </row>
-    <row r="185" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="4"/>
@@ -5402,7 +5430,7 @@
       <c r="S185" s="4"/>
       <c r="T185" s="4"/>
     </row>
-    <row r="186" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="4"/>
@@ -5424,7 +5452,7 @@
       <c r="S186" s="4"/>
       <c r="T186" s="4"/>
     </row>
-    <row r="187" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="4"/>
@@ -5446,7 +5474,7 @@
       <c r="S187" s="4"/>
       <c r="T187" s="4"/>
     </row>
-    <row r="188" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="4"/>
@@ -5468,7 +5496,7 @@
       <c r="S188" s="4"/>
       <c r="T188" s="4"/>
     </row>
-    <row r="189" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="4"/>
@@ -5490,7 +5518,7 @@
       <c r="S189" s="4"/>
       <c r="T189" s="4"/>
     </row>
-    <row r="190" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="4"/>
@@ -5512,7 +5540,7 @@
       <c r="S190" s="4"/>
       <c r="T190" s="4"/>
     </row>
-    <row r="191" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="4"/>
@@ -5534,7 +5562,7 @@
       <c r="S191" s="4"/>
       <c r="T191" s="4"/>
     </row>
-    <row r="192" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="4"/>
@@ -5556,7 +5584,7 @@
       <c r="S192" s="4"/>
       <c r="T192" s="4"/>
     </row>
-    <row r="193" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="4"/>
@@ -5578,7 +5606,7 @@
       <c r="S193" s="4"/>
       <c r="T193" s="4"/>
     </row>
-    <row r="194" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="4"/>
@@ -5600,7 +5628,7 @@
       <c r="S194" s="4"/>
       <c r="T194" s="4"/>
     </row>
-    <row r="195" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="4"/>
@@ -5622,7 +5650,7 @@
       <c r="S195" s="4"/>
       <c r="T195" s="4"/>
     </row>
-    <row r="196" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="4"/>
@@ -5644,7 +5672,7 @@
       <c r="S196" s="4"/>
       <c r="T196" s="4"/>
     </row>
-    <row r="197" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="4"/>
@@ -5666,7 +5694,7 @@
       <c r="S197" s="4"/>
       <c r="T197" s="4"/>
     </row>
-    <row r="198" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="4"/>
@@ -5688,7 +5716,7 @@
       <c r="S198" s="4"/>
       <c r="T198" s="4"/>
     </row>
-    <row r="199" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="4"/>
@@ -5710,7 +5738,7 @@
       <c r="S199" s="4"/>
       <c r="T199" s="4"/>
     </row>
-    <row r="200" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="4"/>
@@ -5732,7 +5760,7 @@
       <c r="S200" s="4"/>
       <c r="T200" s="4"/>
     </row>
-    <row r="201" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="4"/>
@@ -5754,7 +5782,7 @@
       <c r="S201" s="4"/>
       <c r="T201" s="4"/>
     </row>
-    <row r="202" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="4"/>
@@ -5776,7 +5804,7 @@
       <c r="S202" s="4"/>
       <c r="T202" s="4"/>
     </row>
-    <row r="203" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="4"/>
@@ -5798,7 +5826,7 @@
       <c r="S203" s="4"/>
       <c r="T203" s="4"/>
     </row>
-    <row r="204" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="4"/>
@@ -5820,7 +5848,7 @@
       <c r="S204" s="4"/>
       <c r="T204" s="4"/>
     </row>
-    <row r="205" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="4"/>
@@ -5842,7 +5870,7 @@
       <c r="S205" s="4"/>
       <c r="T205" s="4"/>
     </row>
-    <row r="206" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="4"/>
@@ -5864,7 +5892,7 @@
       <c r="S206" s="4"/>
       <c r="T206" s="4"/>
     </row>
-    <row r="207" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="4"/>
@@ -5886,7 +5914,7 @@
       <c r="S207" s="4"/>
       <c r="T207" s="4"/>
     </row>
-    <row r="208" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="4"/>
@@ -5908,7 +5936,7 @@
       <c r="S208" s="4"/>
       <c r="T208" s="4"/>
     </row>
-    <row r="209" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="4"/>
@@ -5930,7 +5958,7 @@
       <c r="S209" s="4"/>
       <c r="T209" s="4"/>
     </row>
-    <row r="210" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="4"/>
@@ -5952,7 +5980,7 @@
       <c r="S210" s="4"/>
       <c r="T210" s="4"/>
     </row>
-    <row r="211" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="4"/>
@@ -5974,7 +6002,7 @@
       <c r="S211" s="4"/>
       <c r="T211" s="4"/>
     </row>
-    <row r="212" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="4"/>
@@ -5996,7 +6024,7 @@
       <c r="S212" s="4"/>
       <c r="T212" s="4"/>
     </row>
-    <row r="213" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="4"/>
@@ -6018,7 +6046,7 @@
       <c r="S213" s="4"/>
       <c r="T213" s="4"/>
     </row>
-    <row r="214" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="4"/>
@@ -6040,7 +6068,7 @@
       <c r="S214" s="4"/>
       <c r="T214" s="4"/>
     </row>
-    <row r="215" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="4"/>
@@ -6062,7 +6090,7 @@
       <c r="S215" s="4"/>
       <c r="T215" s="4"/>
     </row>
-    <row r="216" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="4"/>
@@ -6084,7 +6112,7 @@
       <c r="S216" s="4"/>
       <c r="T216" s="4"/>
     </row>
-    <row r="217" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="4"/>
@@ -6106,7 +6134,7 @@
       <c r="S217" s="4"/>
       <c r="T217" s="4"/>
     </row>
-    <row r="218" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="4"/>
@@ -6128,7 +6156,7 @@
       <c r="S218" s="4"/>
       <c r="T218" s="4"/>
     </row>
-    <row r="219" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="4"/>
@@ -6150,7 +6178,7 @@
       <c r="S219" s="4"/>
       <c r="T219" s="4"/>
     </row>
-    <row r="220" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="4"/>
@@ -6172,7 +6200,7 @@
       <c r="S220" s="4"/>
       <c r="T220" s="4"/>
     </row>
-    <row r="221" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="4"/>
@@ -6194,7 +6222,7 @@
       <c r="S221" s="4"/>
       <c r="T221" s="4"/>
     </row>
-    <row r="222" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="4"/>
@@ -6216,7 +6244,7 @@
       <c r="S222" s="4"/>
       <c r="T222" s="4"/>
     </row>
-    <row r="223" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="4"/>
@@ -6238,7 +6266,7 @@
       <c r="S223" s="4"/>
       <c r="T223" s="4"/>
     </row>
-    <row r="224" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="4"/>
@@ -6260,7 +6288,7 @@
       <c r="S224" s="4"/>
       <c r="T224" s="4"/>
     </row>
-    <row r="225" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="4"/>
@@ -6282,7 +6310,7 @@
       <c r="S225" s="4"/>
       <c r="T225" s="4"/>
     </row>
-    <row r="226" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="4"/>
@@ -6304,7 +6332,7 @@
       <c r="S226" s="4"/>
       <c r="T226" s="4"/>
     </row>
-    <row r="227" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="4"/>
@@ -6326,7 +6354,7 @@
       <c r="S227" s="4"/>
       <c r="T227" s="4"/>
     </row>
-    <row r="228" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="4"/>
@@ -6348,7 +6376,7 @@
       <c r="S228" s="4"/>
       <c r="T228" s="4"/>
     </row>
-    <row r="229" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="4"/>
@@ -6370,7 +6398,7 @@
       <c r="S229" s="4"/>
       <c r="T229" s="4"/>
     </row>
-    <row r="230" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="4"/>
@@ -6392,7 +6420,7 @@
       <c r="S230" s="4"/>
       <c r="T230" s="4"/>
     </row>
-    <row r="231" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="4"/>
@@ -6414,7 +6442,7 @@
       <c r="S231" s="4"/>
       <c r="T231" s="4"/>
     </row>
-    <row r="232" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="4"/>
@@ -6436,7 +6464,7 @@
       <c r="S232" s="4"/>
       <c r="T232" s="4"/>
     </row>
-    <row r="233" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="4"/>
@@ -6458,7 +6486,7 @@
       <c r="S233" s="4"/>
       <c r="T233" s="4"/>
     </row>
-    <row r="234" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="4"/>
@@ -6480,7 +6508,7 @@
       <c r="S234" s="4"/>
       <c r="T234" s="4"/>
     </row>
-    <row r="235" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="4"/>
@@ -6502,7 +6530,7 @@
       <c r="S235" s="4"/>
       <c r="T235" s="4"/>
     </row>
-    <row r="236" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="4"/>
@@ -6524,7 +6552,7 @@
       <c r="S236" s="4"/>
       <c r="T236" s="4"/>
     </row>
-    <row r="237" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="4"/>
@@ -6546,7 +6574,7 @@
       <c r="S237" s="4"/>
       <c r="T237" s="4"/>
     </row>
-    <row r="238" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="4"/>
@@ -6568,7 +6596,7 @@
       <c r="S238" s="4"/>
       <c r="T238" s="4"/>
     </row>
-    <row r="239" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="4"/>
@@ -6590,7 +6618,7 @@
       <c r="S239" s="4"/>
       <c r="T239" s="4"/>
     </row>
-    <row r="240" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="4"/>
@@ -6612,7 +6640,7 @@
       <c r="S240" s="4"/>
       <c r="T240" s="4"/>
     </row>
-    <row r="241" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="4"/>
@@ -6634,7 +6662,7 @@
       <c r="S241" s="4"/>
       <c r="T241" s="4"/>
     </row>
-    <row r="242" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="4"/>
@@ -6656,7 +6684,7 @@
       <c r="S242" s="4"/>
       <c r="T242" s="4"/>
     </row>
-    <row r="243" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="4"/>
@@ -6678,7 +6706,7 @@
       <c r="S243" s="4"/>
       <c r="T243" s="4"/>
     </row>
-    <row r="244" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="4"/>
@@ -6700,7 +6728,7 @@
       <c r="S244" s="4"/>
       <c r="T244" s="4"/>
     </row>
-    <row r="245" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="4"/>
@@ -6722,7 +6750,7 @@
       <c r="S245" s="4"/>
       <c r="T245" s="4"/>
     </row>
-    <row r="246" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="4"/>
@@ -6744,7 +6772,7 @@
       <c r="S246" s="4"/>
       <c r="T246" s="4"/>
     </row>
-    <row r="247" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="4"/>
@@ -6766,7 +6794,7 @@
       <c r="S247" s="4"/>
       <c r="T247" s="4"/>
     </row>
-    <row r="248" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="4"/>
@@ -6788,7 +6816,7 @@
       <c r="S248" s="4"/>
       <c r="T248" s="4"/>
     </row>
-    <row r="249" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="4"/>
@@ -6810,7 +6838,7 @@
       <c r="S249" s="4"/>
       <c r="T249" s="4"/>
     </row>
-    <row r="250" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="4"/>
@@ -6832,7 +6860,7 @@
       <c r="S250" s="4"/>
       <c r="T250" s="4"/>
     </row>
-    <row r="251" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="4"/>
@@ -6854,7 +6882,7 @@
       <c r="S251" s="4"/>
       <c r="T251" s="4"/>
     </row>
-    <row r="252" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="4"/>
@@ -6876,7 +6904,7 @@
       <c r="S252" s="4"/>
       <c r="T252" s="4"/>
     </row>
-    <row r="253" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="4"/>
@@ -6898,7 +6926,7 @@
       <c r="S253" s="4"/>
       <c r="T253" s="4"/>
     </row>
-    <row r="254" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="4"/>
@@ -6920,7 +6948,7 @@
       <c r="S254" s="4"/>
       <c r="T254" s="4"/>
     </row>
-    <row r="255" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="4"/>
@@ -6942,7 +6970,7 @@
       <c r="S255" s="4"/>
       <c r="T255" s="4"/>
     </row>
-    <row r="256" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="4"/>
@@ -6964,7 +6992,7 @@
       <c r="S256" s="4"/>
       <c r="T256" s="4"/>
     </row>
-    <row r="257" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="4"/>
@@ -6986,7 +7014,7 @@
       <c r="S257" s="4"/>
       <c r="T257" s="4"/>
     </row>
-    <row r="258" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="4"/>
@@ -7008,7 +7036,7 @@
       <c r="S258" s="4"/>
       <c r="T258" s="4"/>
     </row>
-    <row r="259" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="4"/>
@@ -7030,7 +7058,7 @@
       <c r="S259" s="4"/>
       <c r="T259" s="4"/>
     </row>
-    <row r="260" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="4"/>
@@ -7052,7 +7080,7 @@
       <c r="S260" s="4"/>
       <c r="T260" s="4"/>
     </row>
-    <row r="261" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="4"/>
@@ -7074,7 +7102,7 @@
       <c r="S261" s="4"/>
       <c r="T261" s="4"/>
     </row>
-    <row r="262" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="4"/>
@@ -7096,7 +7124,7 @@
       <c r="S262" s="4"/>
       <c r="T262" s="4"/>
     </row>
-    <row r="263" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="4"/>
@@ -7118,7 +7146,7 @@
       <c r="S263" s="4"/>
       <c r="T263" s="4"/>
     </row>
-    <row r="264" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="4"/>
@@ -7140,7 +7168,7 @@
       <c r="S264" s="4"/>
       <c r="T264" s="4"/>
     </row>
-    <row r="265" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="4"/>
@@ -7162,7 +7190,7 @@
       <c r="S265" s="4"/>
       <c r="T265" s="4"/>
     </row>
-    <row r="266" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="4"/>
@@ -7184,7 +7212,7 @@
       <c r="S266" s="4"/>
       <c r="T266" s="4"/>
     </row>
-    <row r="267" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="4"/>
@@ -7206,7 +7234,7 @@
       <c r="S267" s="4"/>
       <c r="T267" s="4"/>
     </row>
-    <row r="268" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="4"/>
@@ -7228,7 +7256,7 @@
       <c r="S268" s="4"/>
       <c r="T268" s="4"/>
     </row>
-    <row r="269" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="4"/>
@@ -7250,7 +7278,7 @@
       <c r="S269" s="4"/>
       <c r="T269" s="4"/>
     </row>
-    <row r="270" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="4"/>
@@ -7272,7 +7300,7 @@
       <c r="S270" s="4"/>
       <c r="T270" s="4"/>
     </row>
-    <row r="271" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="4"/>
@@ -7294,7 +7322,7 @@
       <c r="S271" s="4"/>
       <c r="T271" s="4"/>
     </row>
-    <row r="272" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="4"/>
@@ -7316,7 +7344,7 @@
       <c r="S272" s="4"/>
       <c r="T272" s="4"/>
     </row>
-    <row r="273" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="4"/>
@@ -7338,7 +7366,7 @@
       <c r="S273" s="4"/>
       <c r="T273" s="4"/>
     </row>
-    <row r="274" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="4"/>
@@ -7360,7 +7388,7 @@
       <c r="S274" s="4"/>
       <c r="T274" s="4"/>
     </row>
-    <row r="275" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="4"/>
@@ -7382,7 +7410,7 @@
       <c r="S275" s="4"/>
       <c r="T275" s="4"/>
     </row>
-    <row r="276" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="4"/>
@@ -7404,7 +7432,7 @@
       <c r="S276" s="4"/>
       <c r="T276" s="4"/>
     </row>
-    <row r="277" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="4"/>
@@ -7426,7 +7454,7 @@
       <c r="S277" s="4"/>
       <c r="T277" s="4"/>
     </row>
-    <row r="278" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="4"/>
@@ -7448,7 +7476,7 @@
       <c r="S278" s="4"/>
       <c r="T278" s="4"/>
     </row>
-    <row r="279" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="4"/>
@@ -7470,7 +7498,7 @@
       <c r="S279" s="4"/>
       <c r="T279" s="4"/>
     </row>
-    <row r="280" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="4"/>
@@ -7492,7 +7520,7 @@
       <c r="S280" s="4"/>
       <c r="T280" s="4"/>
     </row>
-    <row r="281" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="4"/>
@@ -7514,7 +7542,7 @@
       <c r="S281" s="4"/>
       <c r="T281" s="4"/>
     </row>
-    <row r="282" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="4"/>
@@ -7536,7 +7564,7 @@
       <c r="S282" s="4"/>
       <c r="T282" s="4"/>
     </row>
-    <row r="283" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="4"/>
@@ -7558,7 +7586,7 @@
       <c r="S283" s="4"/>
       <c r="T283" s="4"/>
     </row>
-    <row r="284" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="4"/>
@@ -7580,7 +7608,7 @@
       <c r="S284" s="4"/>
       <c r="T284" s="4"/>
     </row>
-    <row r="285" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="4"/>
@@ -7602,7 +7630,7 @@
       <c r="S285" s="4"/>
       <c r="T285" s="4"/>
     </row>
-    <row r="286" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="4"/>
@@ -7624,7 +7652,7 @@
       <c r="S286" s="4"/>
       <c r="T286" s="4"/>
     </row>
-    <row r="287" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="4"/>
@@ -7646,7 +7674,7 @@
       <c r="S287" s="4"/>
       <c r="T287" s="4"/>
     </row>
-    <row r="288" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="4"/>
@@ -7668,7 +7696,7 @@
       <c r="S288" s="4"/>
       <c r="T288" s="4"/>
     </row>
-    <row r="289" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="4"/>
@@ -7690,7 +7718,7 @@
       <c r="S289" s="4"/>
       <c r="T289" s="4"/>
     </row>
-    <row r="290" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="4"/>
@@ -7712,7 +7740,7 @@
       <c r="S290" s="4"/>
       <c r="T290" s="4"/>
     </row>
-    <row r="291" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="4"/>
@@ -7734,7 +7762,7 @@
       <c r="S291" s="4"/>
       <c r="T291" s="4"/>
     </row>
-    <row r="292" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="4"/>
@@ -7756,7 +7784,7 @@
       <c r="S292" s="4"/>
       <c r="T292" s="4"/>
     </row>
-    <row r="293" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="4"/>
@@ -7778,7 +7806,7 @@
       <c r="S293" s="4"/>
       <c r="T293" s="4"/>
     </row>
-    <row r="294" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="4"/>
@@ -7800,7 +7828,7 @@
       <c r="S294" s="4"/>
       <c r="T294" s="4"/>
     </row>
-    <row r="295" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="4"/>
@@ -7822,7 +7850,7 @@
       <c r="S295" s="4"/>
       <c r="T295" s="4"/>
     </row>
-    <row r="296" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="4"/>
@@ -7844,7 +7872,7 @@
       <c r="S296" s="4"/>
       <c r="T296" s="4"/>
     </row>
-    <row r="297" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="4"/>
@@ -7866,7 +7894,7 @@
       <c r="S297" s="4"/>
       <c r="T297" s="4"/>
     </row>
-    <row r="298" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="4"/>
@@ -7888,7 +7916,7 @@
       <c r="S298" s="4"/>
       <c r="T298" s="4"/>
     </row>
-    <row r="299" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="4"/>
@@ -7910,7 +7938,7 @@
       <c r="S299" s="4"/>
       <c r="T299" s="4"/>
     </row>
-    <row r="300" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="4"/>
@@ -7932,7 +7960,7 @@
       <c r="S300" s="4"/>
       <c r="T300" s="4"/>
     </row>
-    <row r="301" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="4"/>
@@ -7954,7 +7982,7 @@
       <c r="S301" s="4"/>
       <c r="T301" s="4"/>
     </row>
-    <row r="302" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="4"/>
@@ -7976,7 +8004,7 @@
       <c r="S302" s="4"/>
       <c r="T302" s="4"/>
     </row>
-    <row r="303" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="4"/>
@@ -7998,7 +8026,7 @@
       <c r="S303" s="4"/>
       <c r="T303" s="4"/>
     </row>
-    <row r="304" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="4"/>
@@ -8020,7 +8048,7 @@
       <c r="S304" s="4"/>
       <c r="T304" s="4"/>
     </row>
-    <row r="305" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="4"/>
@@ -8042,7 +8070,7 @@
       <c r="S305" s="4"/>
       <c r="T305" s="4"/>
     </row>
-    <row r="306" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="4"/>
@@ -8064,7 +8092,7 @@
       <c r="S306" s="4"/>
       <c r="T306" s="4"/>
     </row>
-    <row r="307" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="4"/>
@@ -8086,7 +8114,7 @@
       <c r="S307" s="4"/>
       <c r="T307" s="4"/>
     </row>
-    <row r="308" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="4"/>
@@ -8108,7 +8136,7 @@
       <c r="S308" s="4"/>
       <c r="T308" s="4"/>
     </row>
-    <row r="309" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="4"/>
@@ -8130,7 +8158,7 @@
       <c r="S309" s="4"/>
       <c r="T309" s="4"/>
     </row>
-    <row r="310" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="4"/>
@@ -8152,7 +8180,7 @@
       <c r="S310" s="4"/>
       <c r="T310" s="4"/>
     </row>
-    <row r="311" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="4"/>
@@ -8174,7 +8202,7 @@
       <c r="S311" s="4"/>
       <c r="T311" s="4"/>
     </row>
-    <row r="312" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="4"/>
@@ -8196,7 +8224,7 @@
       <c r="S312" s="4"/>
       <c r="T312" s="4"/>
     </row>
-    <row r="313" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="4"/>
@@ -8218,7 +8246,7 @@
       <c r="S313" s="4"/>
       <c r="T313" s="4"/>
     </row>
-    <row r="314" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="4"/>
@@ -8240,7 +8268,7 @@
       <c r="S314" s="4"/>
       <c r="T314" s="4"/>
     </row>
-    <row r="315" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="4"/>
@@ -8262,7 +8290,7 @@
       <c r="S315" s="4"/>
       <c r="T315" s="4"/>
     </row>
-    <row r="316" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="4"/>
@@ -8284,7 +8312,7 @@
       <c r="S316" s="4"/>
       <c r="T316" s="4"/>
     </row>
-    <row r="317" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="4"/>
@@ -8306,7 +8334,7 @@
       <c r="S317" s="4"/>
       <c r="T317" s="4"/>
     </row>
-    <row r="318" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="4"/>
@@ -8328,7 +8356,7 @@
       <c r="S318" s="4"/>
       <c r="T318" s="4"/>
     </row>
-    <row r="319" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="4"/>
@@ -8350,7 +8378,7 @@
       <c r="S319" s="4"/>
       <c r="T319" s="4"/>
     </row>
-    <row r="320" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="4"/>
@@ -8372,7 +8400,7 @@
       <c r="S320" s="4"/>
       <c r="T320" s="4"/>
     </row>
-    <row r="321" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="4"/>
@@ -8394,7 +8422,7 @@
       <c r="S321" s="4"/>
       <c r="T321" s="4"/>
     </row>
-    <row r="322" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="4"/>
@@ -8416,7 +8444,7 @@
       <c r="S322" s="4"/>
       <c r="T322" s="4"/>
     </row>
-    <row r="323" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="4"/>
@@ -8438,7 +8466,7 @@
       <c r="S323" s="4"/>
       <c r="T323" s="4"/>
     </row>
-    <row r="324" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="4"/>
@@ -8460,7 +8488,7 @@
       <c r="S324" s="4"/>
       <c r="T324" s="4"/>
     </row>
-    <row r="325" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="4"/>
@@ -8482,7 +8510,7 @@
       <c r="S325" s="4"/>
       <c r="T325" s="4"/>
     </row>
-    <row r="326" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="4"/>
@@ -8504,7 +8532,7 @@
       <c r="S326" s="4"/>
       <c r="T326" s="4"/>
     </row>
-    <row r="327" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="4"/>
@@ -8526,7 +8554,7 @@
       <c r="S327" s="4"/>
       <c r="T327" s="4"/>
     </row>
-    <row r="328" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="4"/>
@@ -8548,7 +8576,7 @@
       <c r="S328" s="4"/>
       <c r="T328" s="4"/>
     </row>
-    <row r="329" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="4"/>
@@ -8570,7 +8598,7 @@
       <c r="S329" s="4"/>
       <c r="T329" s="4"/>
     </row>
-    <row r="330" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="4"/>
@@ -8592,7 +8620,7 @@
       <c r="S330" s="4"/>
       <c r="T330" s="4"/>
     </row>
-    <row r="331" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="4"/>
@@ -8614,7 +8642,7 @@
       <c r="S331" s="4"/>
       <c r="T331" s="4"/>
     </row>
-    <row r="332" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="4"/>
@@ -8636,7 +8664,7 @@
       <c r="S332" s="4"/>
       <c r="T332" s="4"/>
     </row>
-    <row r="333" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="4"/>
@@ -8658,7 +8686,7 @@
       <c r="S333" s="4"/>
       <c r="T333" s="4"/>
     </row>
-    <row r="334" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="4"/>
@@ -8680,7 +8708,7 @@
       <c r="S334" s="4"/>
       <c r="T334" s="4"/>
     </row>
-    <row r="335" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="4"/>
@@ -8702,7 +8730,7 @@
       <c r="S335" s="4"/>
       <c r="T335" s="4"/>
     </row>
-    <row r="336" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="4"/>
@@ -8724,7 +8752,7 @@
       <c r="S336" s="4"/>
       <c r="T336" s="4"/>
     </row>
-    <row r="337" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="4"/>
@@ -8746,7 +8774,7 @@
       <c r="S337" s="4"/>
       <c r="T337" s="4"/>
     </row>
-    <row r="338" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="4"/>
@@ -8768,7 +8796,7 @@
       <c r="S338" s="4"/>
       <c r="T338" s="4"/>
     </row>
-    <row r="339" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="4"/>
@@ -8790,7 +8818,7 @@
       <c r="S339" s="4"/>
       <c r="T339" s="4"/>
     </row>
-    <row r="340" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="4"/>
@@ -8812,7 +8840,7 @@
       <c r="S340" s="4"/>
       <c r="T340" s="4"/>
     </row>
-    <row r="341" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="4"/>
@@ -8834,7 +8862,7 @@
       <c r="S341" s="4"/>
       <c r="T341" s="4"/>
     </row>
-    <row r="342" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="4"/>
@@ -8856,7 +8884,7 @@
       <c r="S342" s="4"/>
       <c r="T342" s="4"/>
     </row>
-    <row r="343" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="4"/>
@@ -8878,7 +8906,7 @@
       <c r="S343" s="4"/>
       <c r="T343" s="4"/>
     </row>
-    <row r="344" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="4"/>
@@ -8900,7 +8928,7 @@
       <c r="S344" s="4"/>
       <c r="T344" s="4"/>
     </row>
-    <row r="345" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="4"/>
@@ -8922,7 +8950,7 @@
       <c r="S345" s="4"/>
       <c r="T345" s="4"/>
     </row>
-    <row r="346" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="4"/>
@@ -8944,7 +8972,7 @@
       <c r="S346" s="4"/>
       <c r="T346" s="4"/>
     </row>
-    <row r="347" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="4"/>
@@ -8966,7 +8994,7 @@
       <c r="S347" s="4"/>
       <c r="T347" s="4"/>
     </row>
-    <row r="348" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="4"/>
@@ -8988,7 +9016,7 @@
       <c r="S348" s="4"/>
       <c r="T348" s="4"/>
     </row>
-    <row r="349" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="4"/>
@@ -9010,7 +9038,7 @@
       <c r="S349" s="4"/>
       <c r="T349" s="4"/>
     </row>
-    <row r="350" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="4"/>
@@ -9032,7 +9060,7 @@
       <c r="S350" s="4"/>
       <c r="T350" s="4"/>
     </row>
-    <row r="351" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="4"/>
@@ -9054,7 +9082,7 @@
       <c r="S351" s="4"/>
       <c r="T351" s="4"/>
     </row>
-    <row r="352" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="4"/>
@@ -9076,7 +9104,7 @@
       <c r="S352" s="4"/>
       <c r="T352" s="4"/>
     </row>
-    <row r="353" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="4"/>
@@ -9098,7 +9126,7 @@
       <c r="S353" s="4"/>
       <c r="T353" s="4"/>
     </row>
-    <row r="354" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="4"/>
@@ -9120,7 +9148,7 @@
       <c r="S354" s="4"/>
       <c r="T354" s="4"/>
     </row>
-    <row r="355" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="4"/>
@@ -9142,7 +9170,7 @@
       <c r="S355" s="4"/>
       <c r="T355" s="4"/>
     </row>
-    <row r="356" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="4"/>
@@ -9164,7 +9192,7 @@
       <c r="S356" s="4"/>
       <c r="T356" s="4"/>
     </row>
-    <row r="357" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="4"/>
@@ -9186,7 +9214,7 @@
       <c r="S357" s="4"/>
       <c r="T357" s="4"/>
     </row>
-    <row r="358" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="4"/>
@@ -9208,7 +9236,7 @@
       <c r="S358" s="4"/>
       <c r="T358" s="4"/>
     </row>
-    <row r="359" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="4"/>
@@ -9230,7 +9258,7 @@
       <c r="S359" s="4"/>
       <c r="T359" s="4"/>
     </row>
-    <row r="360" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="4"/>
@@ -9252,7 +9280,7 @@
       <c r="S360" s="4"/>
       <c r="T360" s="4"/>
     </row>
-    <row r="361" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="4"/>
@@ -9274,7 +9302,7 @@
       <c r="S361" s="4"/>
       <c r="T361" s="4"/>
     </row>
-    <row r="362" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="4"/>
@@ -9296,7 +9324,7 @@
       <c r="S362" s="4"/>
       <c r="T362" s="4"/>
     </row>
-    <row r="363" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="4"/>
@@ -9318,7 +9346,7 @@
       <c r="S363" s="4"/>
       <c r="T363" s="4"/>
     </row>
-    <row r="364" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="4"/>
@@ -9340,7 +9368,7 @@
       <c r="S364" s="4"/>
       <c r="T364" s="4"/>
     </row>
-    <row r="365" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="4"/>
@@ -9362,7 +9390,7 @@
       <c r="S365" s="4"/>
       <c r="T365" s="4"/>
     </row>
-    <row r="366" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="4"/>
@@ -9384,7 +9412,7 @@
       <c r="S366" s="4"/>
       <c r="T366" s="4"/>
     </row>
-    <row r="367" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="4"/>
@@ -9406,7 +9434,7 @@
       <c r="S367" s="4"/>
       <c r="T367" s="4"/>
     </row>
-    <row r="368" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="4"/>
@@ -9428,7 +9456,7 @@
       <c r="S368" s="4"/>
       <c r="T368" s="4"/>
     </row>
-    <row r="369" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="4"/>
@@ -9450,7 +9478,7 @@
       <c r="S369" s="4"/>
       <c r="T369" s="4"/>
     </row>
-    <row r="370" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="4"/>
@@ -9472,7 +9500,7 @@
       <c r="S370" s="4"/>
       <c r="T370" s="4"/>
     </row>
-    <row r="371" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="4"/>
@@ -9494,7 +9522,7 @@
       <c r="S371" s="4"/>
       <c r="T371" s="4"/>
     </row>
-    <row r="372" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="4"/>
@@ -9516,7 +9544,7 @@
       <c r="S372" s="4"/>
       <c r="T372" s="4"/>
     </row>
-    <row r="373" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="4"/>
@@ -9538,7 +9566,7 @@
       <c r="S373" s="4"/>
       <c r="T373" s="4"/>
     </row>
-    <row r="374" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="4"/>
@@ -9560,7 +9588,7 @@
       <c r="S374" s="4"/>
       <c r="T374" s="4"/>
     </row>
-    <row r="375" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="4"/>
@@ -9582,7 +9610,7 @@
       <c r="S375" s="4"/>
       <c r="T375" s="4"/>
     </row>
-    <row r="376" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="4"/>
@@ -9604,7 +9632,7 @@
       <c r="S376" s="4"/>
       <c r="T376" s="4"/>
     </row>
-    <row r="377" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="4"/>
@@ -9626,7 +9654,7 @@
       <c r="S377" s="4"/>
       <c r="T377" s="4"/>
     </row>
-    <row r="378" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="4"/>
@@ -9648,7 +9676,7 @@
       <c r="S378" s="4"/>
       <c r="T378" s="4"/>
     </row>
-    <row r="379" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="4"/>
@@ -9670,7 +9698,7 @@
       <c r="S379" s="4"/>
       <c r="T379" s="4"/>
     </row>
-    <row r="380" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="4"/>
@@ -9692,7 +9720,7 @@
       <c r="S380" s="4"/>
       <c r="T380" s="4"/>
     </row>
-    <row r="381" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="4"/>
@@ -9714,7 +9742,7 @@
       <c r="S381" s="4"/>
       <c r="T381" s="4"/>
     </row>
-    <row r="382" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="4"/>
@@ -9736,7 +9764,7 @@
       <c r="S382" s="4"/>
       <c r="T382" s="4"/>
     </row>
-    <row r="383" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="4"/>
@@ -9758,7 +9786,7 @@
       <c r="S383" s="4"/>
       <c r="T383" s="4"/>
     </row>
-    <row r="384" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="4"/>
@@ -9780,7 +9808,7 @@
       <c r="S384" s="4"/>
       <c r="T384" s="4"/>
     </row>
-    <row r="385" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="4"/>
@@ -9802,7 +9830,7 @@
       <c r="S385" s="4"/>
       <c r="T385" s="4"/>
     </row>
-    <row r="386" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="4"/>
@@ -9824,7 +9852,7 @@
       <c r="S386" s="4"/>
       <c r="T386" s="4"/>
     </row>
-    <row r="387" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="4"/>
@@ -9846,7 +9874,7 @@
       <c r="S387" s="4"/>
       <c r="T387" s="4"/>
     </row>
-    <row r="388" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="4"/>
@@ -9868,7 +9896,7 @@
       <c r="S388" s="4"/>
       <c r="T388" s="4"/>
     </row>
-    <row r="389" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="4"/>
@@ -9890,7 +9918,7 @@
       <c r="S389" s="4"/>
       <c r="T389" s="4"/>
     </row>
-    <row r="390" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="4"/>
@@ -9912,7 +9940,7 @@
       <c r="S390" s="4"/>
       <c r="T390" s="4"/>
     </row>
-    <row r="391" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="4"/>
@@ -9934,7 +9962,7 @@
       <c r="S391" s="4"/>
       <c r="T391" s="4"/>
     </row>
-    <row r="392" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="4"/>
@@ -9956,7 +9984,7 @@
       <c r="S392" s="4"/>
       <c r="T392" s="4"/>
     </row>
-    <row r="393" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="4"/>
@@ -9978,7 +10006,7 @@
       <c r="S393" s="4"/>
       <c r="T393" s="4"/>
     </row>
-    <row r="394" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="4"/>
@@ -10000,7 +10028,7 @@
       <c r="S394" s="4"/>
       <c r="T394" s="4"/>
     </row>
-    <row r="395" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="4"/>
@@ -10022,7 +10050,7 @@
       <c r="S395" s="4"/>
       <c r="T395" s="4"/>
     </row>
-    <row r="396" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="4"/>
@@ -10044,7 +10072,7 @@
       <c r="S396" s="4"/>
       <c r="T396" s="4"/>
     </row>
-    <row r="397" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="4"/>
@@ -10066,7 +10094,7 @@
       <c r="S397" s="4"/>
       <c r="T397" s="4"/>
     </row>
-    <row r="398" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="4"/>
@@ -10088,7 +10116,7 @@
       <c r="S398" s="4"/>
       <c r="T398" s="4"/>
     </row>
-    <row r="399" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="4"/>
@@ -10110,7 +10138,7 @@
       <c r="S399" s="4"/>
       <c r="T399" s="4"/>
     </row>
-    <row r="400" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="4"/>
@@ -10132,7 +10160,7 @@
       <c r="S400" s="4"/>
       <c r="T400" s="4"/>
     </row>
-    <row r="401" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="4"/>
@@ -10154,7 +10182,7 @@
       <c r="S401" s="4"/>
       <c r="T401" s="4"/>
     </row>
-    <row r="402" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="4"/>
@@ -10176,7 +10204,7 @@
       <c r="S402" s="4"/>
       <c r="T402" s="4"/>
     </row>
-    <row r="403" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="4"/>
@@ -10198,7 +10226,7 @@
       <c r="S403" s="4"/>
       <c r="T403" s="4"/>
     </row>
-    <row r="404" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="4"/>
@@ -10220,7 +10248,7 @@
       <c r="S404" s="4"/>
       <c r="T404" s="4"/>
     </row>
-    <row r="405" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="4"/>
@@ -10242,7 +10270,7 @@
       <c r="S405" s="4"/>
       <c r="T405" s="4"/>
     </row>
-    <row r="406" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="4"/>
@@ -10264,7 +10292,7 @@
       <c r="S406" s="4"/>
       <c r="T406" s="4"/>
     </row>
-    <row r="407" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="4"/>
@@ -10286,7 +10314,7 @@
       <c r="S407" s="4"/>
       <c r="T407" s="4"/>
     </row>
-    <row r="408" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="4"/>
@@ -10308,7 +10336,7 @@
       <c r="S408" s="4"/>
       <c r="T408" s="4"/>
     </row>
-    <row r="409" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="4"/>
@@ -10330,7 +10358,7 @@
       <c r="S409" s="4"/>
       <c r="T409" s="4"/>
     </row>
-    <row r="410" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="4"/>
@@ -10352,7 +10380,7 @@
       <c r="S410" s="4"/>
       <c r="T410" s="4"/>
     </row>
-    <row r="411" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="4"/>
@@ -10374,7 +10402,7 @@
       <c r="S411" s="4"/>
       <c r="T411" s="4"/>
     </row>
-    <row r="412" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="4"/>
@@ -10396,7 +10424,7 @@
       <c r="S412" s="4"/>
       <c r="T412" s="4"/>
     </row>
-    <row r="413" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="4"/>
@@ -10418,7 +10446,7 @@
       <c r="S413" s="4"/>
       <c r="T413" s="4"/>
     </row>
-    <row r="414" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="4"/>
@@ -10440,7 +10468,7 @@
       <c r="S414" s="4"/>
       <c r="T414" s="4"/>
     </row>
-    <row r="415" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="4"/>
@@ -10462,7 +10490,7 @@
       <c r="S415" s="4"/>
       <c r="T415" s="4"/>
     </row>
-    <row r="416" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="4"/>
@@ -10484,7 +10512,7 @@
       <c r="S416" s="4"/>
       <c r="T416" s="4"/>
     </row>
-    <row r="417" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="4"/>
@@ -10506,7 +10534,7 @@
       <c r="S417" s="4"/>
       <c r="T417" s="4"/>
     </row>
-    <row r="418" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="4"/>
@@ -10528,7 +10556,7 @@
       <c r="S418" s="4"/>
       <c r="T418" s="4"/>
     </row>
-    <row r="419" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="4"/>
@@ -10550,7 +10578,7 @@
       <c r="S419" s="4"/>
       <c r="T419" s="4"/>
     </row>
-    <row r="420" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="4"/>
@@ -10572,7 +10600,7 @@
       <c r="S420" s="4"/>
       <c r="T420" s="4"/>
     </row>
-    <row r="421" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="4"/>
@@ -10594,7 +10622,7 @@
       <c r="S421" s="4"/>
       <c r="T421" s="4"/>
     </row>
-    <row r="422" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="4"/>
@@ -10616,7 +10644,7 @@
       <c r="S422" s="4"/>
       <c r="T422" s="4"/>
     </row>
-    <row r="423" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="4"/>
@@ -10638,7 +10666,7 @@
       <c r="S423" s="4"/>
       <c r="T423" s="4"/>
     </row>
-    <row r="424" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="4"/>
@@ -10660,7 +10688,7 @@
       <c r="S424" s="4"/>
       <c r="T424" s="4"/>
     </row>
-    <row r="425" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="4"/>
@@ -10682,7 +10710,7 @@
       <c r="S425" s="4"/>
       <c r="T425" s="4"/>
     </row>
-    <row r="426" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="4"/>
@@ -10704,7 +10732,7 @@
       <c r="S426" s="4"/>
       <c r="T426" s="4"/>
     </row>
-    <row r="427" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="4"/>
@@ -10726,7 +10754,7 @@
       <c r="S427" s="4"/>
       <c r="T427" s="4"/>
     </row>
-    <row r="428" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="4"/>
@@ -10748,7 +10776,7 @@
       <c r="S428" s="4"/>
       <c r="T428" s="4"/>
     </row>
-    <row r="429" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="4"/>
@@ -10770,7 +10798,7 @@
       <c r="S429" s="4"/>
       <c r="T429" s="4"/>
     </row>
-    <row r="430" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="4"/>
@@ -10792,7 +10820,7 @@
       <c r="S430" s="4"/>
       <c r="T430" s="4"/>
     </row>
-    <row r="431" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="4"/>
@@ -10814,7 +10842,7 @@
       <c r="S431" s="4"/>
       <c r="T431" s="4"/>
     </row>
-    <row r="432" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="4"/>
@@ -10836,7 +10864,7 @@
       <c r="S432" s="4"/>
       <c r="T432" s="4"/>
     </row>
-    <row r="433" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="4"/>
@@ -10858,7 +10886,7 @@
       <c r="S433" s="4"/>
       <c r="T433" s="4"/>
     </row>
-    <row r="434" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="4"/>
@@ -10880,7 +10908,7 @@
       <c r="S434" s="4"/>
       <c r="T434" s="4"/>
     </row>
-    <row r="435" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="4"/>
@@ -10902,7 +10930,7 @@
       <c r="S435" s="4"/>
       <c r="T435" s="4"/>
     </row>
-    <row r="436" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="4"/>
@@ -10924,7 +10952,7 @@
       <c r="S436" s="4"/>
       <c r="T436" s="4"/>
     </row>
-    <row r="437" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="4"/>
@@ -10946,7 +10974,7 @@
       <c r="S437" s="4"/>
       <c r="T437" s="4"/>
     </row>
-    <row r="438" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="4"/>
@@ -10968,7 +10996,7 @@
       <c r="S438" s="4"/>
       <c r="T438" s="4"/>
     </row>
-    <row r="439" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="4"/>
@@ -10990,7 +11018,7 @@
       <c r="S439" s="4"/>
       <c r="T439" s="4"/>
     </row>
-    <row r="440" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="4"/>
@@ -11012,7 +11040,7 @@
       <c r="S440" s="4"/>
       <c r="T440" s="4"/>
     </row>
-    <row r="441" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="4"/>
@@ -11034,7 +11062,7 @@
       <c r="S441" s="4"/>
       <c r="T441" s="4"/>
     </row>
-    <row r="442" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="4"/>
@@ -11056,7 +11084,7 @@
       <c r="S442" s="4"/>
       <c r="T442" s="4"/>
     </row>
-    <row r="443" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="4"/>
@@ -11078,7 +11106,7 @@
       <c r="S443" s="4"/>
       <c r="T443" s="4"/>
     </row>
-    <row r="444" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="4"/>
@@ -11100,7 +11128,7 @@
       <c r="S444" s="4"/>
       <c r="T444" s="4"/>
     </row>
-    <row r="445" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="4"/>
@@ -11122,7 +11150,7 @@
       <c r="S445" s="4"/>
       <c r="T445" s="4"/>
     </row>
-    <row r="446" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="4"/>
@@ -11144,7 +11172,7 @@
       <c r="S446" s="4"/>
       <c r="T446" s="4"/>
     </row>
-    <row r="447" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="4"/>
@@ -11166,7 +11194,7 @@
       <c r="S447" s="4"/>
       <c r="T447" s="4"/>
     </row>
-    <row r="448" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="4"/>
@@ -11188,7 +11216,7 @@
       <c r="S448" s="4"/>
       <c r="T448" s="4"/>
     </row>
-    <row r="449" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="4"/>
@@ -11210,7 +11238,7 @@
       <c r="S449" s="4"/>
       <c r="T449" s="4"/>
     </row>
-    <row r="450" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="4"/>
@@ -11232,7 +11260,7 @@
       <c r="S450" s="4"/>
       <c r="T450" s="4"/>
     </row>
-    <row r="451" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="4"/>
@@ -11254,7 +11282,7 @@
       <c r="S451" s="4"/>
       <c r="T451" s="4"/>
     </row>
-    <row r="452" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="4"/>
@@ -11276,7 +11304,7 @@
       <c r="S452" s="4"/>
       <c r="T452" s="4"/>
     </row>
-    <row r="453" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="4"/>
@@ -11298,7 +11326,7 @@
       <c r="S453" s="4"/>
       <c r="T453" s="4"/>
     </row>
-    <row r="454" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="4"/>
@@ -11320,7 +11348,7 @@
       <c r="S454" s="4"/>
       <c r="T454" s="4"/>
     </row>
-    <row r="455" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="4"/>
@@ -11342,7 +11370,7 @@
       <c r="S455" s="4"/>
       <c r="T455" s="4"/>
     </row>
-    <row r="456" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="4"/>
@@ -11364,7 +11392,7 @@
       <c r="S456" s="4"/>
       <c r="T456" s="4"/>
     </row>
-    <row r="457" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="4"/>
@@ -11386,7 +11414,7 @@
       <c r="S457" s="4"/>
       <c r="T457" s="4"/>
     </row>
-    <row r="458" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="4"/>
@@ -11408,7 +11436,7 @@
       <c r="S458" s="4"/>
       <c r="T458" s="4"/>
     </row>
-    <row r="459" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="4"/>
@@ -11430,7 +11458,7 @@
       <c r="S459" s="4"/>
       <c r="T459" s="4"/>
     </row>
-    <row r="460" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="4"/>
@@ -11452,7 +11480,7 @@
       <c r="S460" s="4"/>
       <c r="T460" s="4"/>
     </row>
-    <row r="461" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="4"/>
@@ -11474,7 +11502,7 @@
       <c r="S461" s="4"/>
       <c r="T461" s="4"/>
     </row>
-    <row r="462" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="4"/>
@@ -11496,7 +11524,7 @@
       <c r="S462" s="4"/>
       <c r="T462" s="4"/>
     </row>
-    <row r="463" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="4"/>
@@ -11518,7 +11546,7 @@
       <c r="S463" s="4"/>
       <c r="T463" s="4"/>
     </row>
-    <row r="464" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="4"/>
@@ -11540,7 +11568,7 @@
       <c r="S464" s="4"/>
       <c r="T464" s="4"/>
     </row>
-    <row r="465" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="4"/>
@@ -11562,7 +11590,7 @@
       <c r="S465" s="4"/>
       <c r="T465" s="4"/>
     </row>
-    <row r="466" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="4"/>
@@ -11584,7 +11612,7 @@
       <c r="S466" s="4"/>
       <c r="T466" s="4"/>
     </row>
-    <row r="467" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="4"/>
@@ -11606,7 +11634,7 @@
       <c r="S467" s="4"/>
       <c r="T467" s="4"/>
     </row>
-    <row r="468" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="4"/>
@@ -11628,7 +11656,7 @@
       <c r="S468" s="4"/>
       <c r="T468" s="4"/>
     </row>
-    <row r="469" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="4"/>
@@ -11650,7 +11678,7 @@
       <c r="S469" s="4"/>
       <c r="T469" s="4"/>
     </row>
-    <row r="470" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="4"/>
@@ -11672,7 +11700,7 @@
       <c r="S470" s="4"/>
       <c r="T470" s="4"/>
     </row>
-    <row r="471" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="4"/>
@@ -11694,7 +11722,7 @@
       <c r="S471" s="4"/>
       <c r="T471" s="4"/>
     </row>
-    <row r="472" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="4"/>
@@ -11716,7 +11744,7 @@
       <c r="S472" s="4"/>
       <c r="T472" s="4"/>
     </row>
-    <row r="473" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="4"/>
@@ -11738,7 +11766,7 @@
       <c r="S473" s="4"/>
       <c r="T473" s="4"/>
     </row>
-    <row r="474" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="4"/>
@@ -11760,7 +11788,7 @@
       <c r="S474" s="4"/>
       <c r="T474" s="4"/>
     </row>
-    <row r="475" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="4"/>
@@ -11782,7 +11810,7 @@
       <c r="S475" s="4"/>
       <c r="T475" s="4"/>
     </row>
-    <row r="476" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="4"/>
@@ -11804,7 +11832,7 @@
       <c r="S476" s="4"/>
       <c r="T476" s="4"/>
     </row>
-    <row r="477" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="4"/>
@@ -11826,7 +11854,7 @@
       <c r="S477" s="4"/>
       <c r="T477" s="4"/>
     </row>
-    <row r="478" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="4"/>
@@ -11848,7 +11876,7 @@
       <c r="S478" s="4"/>
       <c r="T478" s="4"/>
     </row>
-    <row r="479" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="4"/>
@@ -11870,7 +11898,7 @@
       <c r="S479" s="4"/>
       <c r="T479" s="4"/>
     </row>
-    <row r="480" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="4"/>
@@ -11892,7 +11920,7 @@
       <c r="S480" s="4"/>
       <c r="T480" s="4"/>
     </row>
-    <row r="481" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="4"/>
@@ -11914,7 +11942,7 @@
       <c r="S481" s="4"/>
       <c r="T481" s="4"/>
     </row>
-    <row r="482" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="4"/>
@@ -11936,7 +11964,7 @@
       <c r="S482" s="4"/>
       <c r="T482" s="4"/>
     </row>
-    <row r="483" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="4"/>
@@ -11958,7 +11986,7 @@
       <c r="S483" s="4"/>
       <c r="T483" s="4"/>
     </row>
-    <row r="484" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="4"/>
@@ -11980,7 +12008,7 @@
       <c r="S484" s="4"/>
       <c r="T484" s="4"/>
     </row>
-    <row r="485" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="4"/>
@@ -12002,7 +12030,7 @@
       <c r="S485" s="4"/>
       <c r="T485" s="4"/>
     </row>
-    <row r="486" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="4"/>
@@ -12024,7 +12052,7 @@
       <c r="S486" s="4"/>
       <c r="T486" s="4"/>
     </row>
-    <row r="487" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="4"/>
@@ -12046,7 +12074,7 @@
       <c r="S487" s="4"/>
       <c r="T487" s="4"/>
     </row>
-    <row r="488" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="4"/>
@@ -12068,7 +12096,7 @@
       <c r="S488" s="4"/>
       <c r="T488" s="4"/>
     </row>
-    <row r="489" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="4"/>
@@ -12090,7 +12118,7 @@
       <c r="S489" s="4"/>
       <c r="T489" s="4"/>
     </row>
-    <row r="490" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="4"/>
@@ -12112,7 +12140,7 @@
       <c r="S490" s="4"/>
       <c r="T490" s="4"/>
     </row>
-    <row r="491" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="4"/>
@@ -12134,7 +12162,7 @@
       <c r="S491" s="4"/>
       <c r="T491" s="4"/>
     </row>
-    <row r="492" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="4"/>
@@ -12156,7 +12184,7 @@
       <c r="S492" s="4"/>
       <c r="T492" s="4"/>
     </row>
-    <row r="493" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="4"/>
@@ -12178,7 +12206,7 @@
       <c r="S493" s="4"/>
       <c r="T493" s="4"/>
     </row>
-    <row r="494" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="4"/>
@@ -12200,7 +12228,7 @@
       <c r="S494" s="4"/>
       <c r="T494" s="4"/>
     </row>
-    <row r="495" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="4"/>
@@ -12222,7 +12250,7 @@
       <c r="S495" s="4"/>
       <c r="T495" s="4"/>
     </row>
-    <row r="496" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="4"/>
@@ -12244,7 +12272,7 @@
       <c r="S496" s="4"/>
       <c r="T496" s="4"/>
     </row>
-    <row r="497" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="4"/>
@@ -12266,7 +12294,7 @@
       <c r="S497" s="4"/>
       <c r="T497" s="4"/>
     </row>
-    <row r="498" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="4"/>
@@ -12288,7 +12316,7 @@
       <c r="S498" s="4"/>
       <c r="T498" s="4"/>
     </row>
-    <row r="499" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="4"/>
@@ -12310,7 +12338,7 @@
       <c r="S499" s="4"/>
       <c r="T499" s="4"/>
     </row>
-    <row r="500" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="4"/>
@@ -12332,7 +12360,7 @@
       <c r="S500" s="4"/>
       <c r="T500" s="4"/>
     </row>
-    <row r="501" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="4"/>
@@ -12354,7 +12382,7 @@
       <c r="S501" s="4"/>
       <c r="T501" s="4"/>
     </row>
-    <row r="502" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="4"/>
@@ -12376,7 +12404,7 @@
       <c r="S502" s="4"/>
       <c r="T502" s="4"/>
     </row>
-    <row r="503" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="4"/>
@@ -12398,7 +12426,7 @@
       <c r="S503" s="4"/>
       <c r="T503" s="4"/>
     </row>
-    <row r="504" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="4"/>
@@ -12420,7 +12448,7 @@
       <c r="S504" s="4"/>
       <c r="T504" s="4"/>
     </row>
-    <row r="505" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="4"/>
@@ -12442,7 +12470,7 @@
       <c r="S505" s="4"/>
       <c r="T505" s="4"/>
     </row>
-    <row r="506" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="4"/>
@@ -12464,7 +12492,7 @@
       <c r="S506" s="4"/>
       <c r="T506" s="4"/>
     </row>
-    <row r="507" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="4"/>
@@ -12486,7 +12514,7 @@
       <c r="S507" s="4"/>
       <c r="T507" s="4"/>
     </row>
-    <row r="508" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="4"/>
@@ -12508,7 +12536,7 @@
       <c r="S508" s="4"/>
       <c r="T508" s="4"/>
     </row>
-    <row r="509" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="4"/>
@@ -12530,7 +12558,7 @@
       <c r="S509" s="4"/>
       <c r="T509" s="4"/>
     </row>
-    <row r="510" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="4"/>
@@ -12552,7 +12580,7 @@
       <c r="S510" s="4"/>
       <c r="T510" s="4"/>
     </row>
-    <row r="511" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="4"/>
@@ -12574,7 +12602,7 @@
       <c r="S511" s="4"/>
       <c r="T511" s="4"/>
     </row>
-    <row r="512" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="4"/>
@@ -12596,7 +12624,7 @@
       <c r="S512" s="4"/>
       <c r="T512" s="4"/>
     </row>
-    <row r="513" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="4"/>
@@ -12618,7 +12646,7 @@
       <c r="S513" s="4"/>
       <c r="T513" s="4"/>
     </row>
-    <row r="514" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="4"/>
@@ -12640,7 +12668,7 @@
       <c r="S514" s="4"/>
       <c r="T514" s="4"/>
     </row>
-    <row r="515" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="4"/>
@@ -12662,7 +12690,7 @@
       <c r="S515" s="4"/>
       <c r="T515" s="4"/>
     </row>
-    <row r="516" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="4"/>
@@ -12684,7 +12712,7 @@
       <c r="S516" s="4"/>
       <c r="T516" s="4"/>
     </row>
-    <row r="517" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="4"/>
@@ -12706,7 +12734,7 @@
       <c r="S517" s="4"/>
       <c r="T517" s="4"/>
     </row>
-    <row r="518" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="4"/>
@@ -12728,7 +12756,7 @@
       <c r="S518" s="4"/>
       <c r="T518" s="4"/>
     </row>
-    <row r="519" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="4"/>
@@ -12750,7 +12778,7 @@
       <c r="S519" s="4"/>
       <c r="T519" s="4"/>
     </row>
-    <row r="520" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="4"/>
@@ -12772,7 +12800,7 @@
       <c r="S520" s="4"/>
       <c r="T520" s="4"/>
     </row>
-    <row r="521" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="4"/>
@@ -12794,7 +12822,7 @@
       <c r="S521" s="4"/>
       <c r="T521" s="4"/>
     </row>
-    <row r="522" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="4"/>
@@ -12816,7 +12844,7 @@
       <c r="S522" s="4"/>
       <c r="T522" s="4"/>
     </row>
-    <row r="523" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="4"/>
@@ -12838,7 +12866,7 @@
       <c r="S523" s="4"/>
       <c r="T523" s="4"/>
     </row>
-    <row r="524" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="4"/>
@@ -12860,7 +12888,7 @@
       <c r="S524" s="4"/>
       <c r="T524" s="4"/>
     </row>
-    <row r="525" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="4"/>
@@ -12882,7 +12910,7 @@
       <c r="S525" s="4"/>
       <c r="T525" s="4"/>
     </row>
-    <row r="526" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="4"/>
@@ -12904,7 +12932,7 @@
       <c r="S526" s="4"/>
       <c r="T526" s="4"/>
     </row>
-    <row r="527" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="4"/>
@@ -12926,7 +12954,7 @@
       <c r="S527" s="4"/>
       <c r="T527" s="4"/>
     </row>
-    <row r="528" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="4"/>
@@ -12948,7 +12976,7 @@
       <c r="S528" s="4"/>
       <c r="T528" s="4"/>
     </row>
-    <row r="529" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="4"/>
@@ -12970,7 +12998,7 @@
       <c r="S529" s="4"/>
       <c r="T529" s="4"/>
     </row>
-    <row r="530" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="4"/>
@@ -12992,7 +13020,7 @@
       <c r="S530" s="4"/>
       <c r="T530" s="4"/>
     </row>
-    <row r="531" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="4"/>
@@ -13014,7 +13042,7 @@
       <c r="S531" s="4"/>
       <c r="T531" s="4"/>
     </row>
-    <row r="532" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="4"/>
@@ -13036,7 +13064,7 @@
       <c r="S532" s="4"/>
       <c r="T532" s="4"/>
     </row>
-    <row r="533" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="4"/>
@@ -13058,7 +13086,7 @@
       <c r="S533" s="4"/>
       <c r="T533" s="4"/>
     </row>
-    <row r="534" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="4"/>
@@ -13080,7 +13108,7 @@
       <c r="S534" s="4"/>
       <c r="T534" s="4"/>
     </row>
-    <row r="535" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="4"/>
@@ -13102,7 +13130,7 @@
       <c r="S535" s="4"/>
       <c r="T535" s="4"/>
     </row>
-    <row r="536" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="4"/>
@@ -13124,7 +13152,7 @@
       <c r="S536" s="4"/>
       <c r="T536" s="4"/>
     </row>
-    <row r="537" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="4"/>
@@ -13146,7 +13174,7 @@
       <c r="S537" s="4"/>
       <c r="T537" s="4"/>
     </row>
-    <row r="538" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="4"/>
@@ -13168,7 +13196,7 @@
       <c r="S538" s="4"/>
       <c r="T538" s="4"/>
     </row>
-    <row r="539" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="4"/>
@@ -13190,7 +13218,7 @@
       <c r="S539" s="4"/>
       <c r="T539" s="4"/>
     </row>
-    <row r="540" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="4"/>
@@ -13212,7 +13240,7 @@
       <c r="S540" s="4"/>
       <c r="T540" s="4"/>
     </row>
-    <row r="541" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="4"/>
@@ -13234,7 +13262,7 @@
       <c r="S541" s="4"/>
       <c r="T541" s="4"/>
     </row>
-    <row r="542" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="4"/>
@@ -13256,7 +13284,7 @@
       <c r="S542" s="4"/>
       <c r="T542" s="4"/>
     </row>
-    <row r="543" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="4"/>
@@ -13278,7 +13306,7 @@
       <c r="S543" s="4"/>
       <c r="T543" s="4"/>
     </row>
-    <row r="544" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="4"/>
@@ -13300,7 +13328,7 @@
       <c r="S544" s="4"/>
       <c r="T544" s="4"/>
     </row>
-    <row r="545" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="4"/>
@@ -13322,7 +13350,7 @@
       <c r="S545" s="4"/>
       <c r="T545" s="4"/>
     </row>
-    <row r="546" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="4"/>
@@ -13344,7 +13372,7 @@
       <c r="S546" s="4"/>
       <c r="T546" s="4"/>
     </row>
-    <row r="547" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="4"/>
@@ -13366,7 +13394,7 @@
       <c r="S547" s="4"/>
       <c r="T547" s="4"/>
     </row>
-    <row r="548" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="4"/>
@@ -13388,7 +13416,7 @@
       <c r="S548" s="4"/>
       <c r="T548" s="4"/>
     </row>
-    <row r="549" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="4"/>
@@ -13410,7 +13438,7 @@
       <c r="S549" s="4"/>
       <c r="T549" s="4"/>
     </row>
-    <row r="550" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="4"/>
@@ -13432,7 +13460,7 @@
       <c r="S550" s="4"/>
       <c r="T550" s="4"/>
     </row>
-    <row r="551" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="4"/>
@@ -13454,7 +13482,7 @@
       <c r="S551" s="4"/>
       <c r="T551" s="4"/>
     </row>
-    <row r="552" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="4"/>
@@ -13476,7 +13504,7 @@
       <c r="S552" s="4"/>
       <c r="T552" s="4"/>
     </row>
-    <row r="553" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="4"/>
@@ -13498,7 +13526,7 @@
       <c r="S553" s="4"/>
       <c r="T553" s="4"/>
     </row>
-    <row r="554" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="4"/>
@@ -13520,7 +13548,7 @@
       <c r="S554" s="4"/>
       <c r="T554" s="4"/>
     </row>
-    <row r="555" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="4"/>
@@ -13542,7 +13570,7 @@
       <c r="S555" s="4"/>
       <c r="T555" s="4"/>
     </row>
-    <row r="556" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="4"/>
@@ -13564,7 +13592,7 @@
       <c r="S556" s="4"/>
       <c r="T556" s="4"/>
     </row>
-    <row r="557" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="4"/>
@@ -13586,7 +13614,7 @@
       <c r="S557" s="4"/>
       <c r="T557" s="4"/>
     </row>
-    <row r="558" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="4"/>
@@ -13608,7 +13636,7 @@
       <c r="S558" s="4"/>
       <c r="T558" s="4"/>
     </row>
-    <row r="559" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="4"/>
@@ -13630,7 +13658,7 @@
       <c r="S559" s="4"/>
       <c r="T559" s="4"/>
     </row>
-    <row r="560" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="4"/>
@@ -13652,7 +13680,7 @@
       <c r="S560" s="4"/>
       <c r="T560" s="4"/>
     </row>
-    <row r="561" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="4"/>
@@ -13674,7 +13702,7 @@
       <c r="S561" s="4"/>
       <c r="T561" s="4"/>
     </row>
-    <row r="562" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="4"/>
@@ -13696,7 +13724,7 @@
       <c r="S562" s="4"/>
       <c r="T562" s="4"/>
     </row>
-    <row r="563" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="4"/>
@@ -13718,7 +13746,7 @@
       <c r="S563" s="4"/>
       <c r="T563" s="4"/>
     </row>
-    <row r="564" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="4"/>
@@ -13740,7 +13768,7 @@
       <c r="S564" s="4"/>
       <c r="T564" s="4"/>
     </row>
-    <row r="565" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="4"/>
@@ -13762,7 +13790,7 @@
       <c r="S565" s="4"/>
       <c r="T565" s="4"/>
     </row>
-    <row r="566" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="4"/>
@@ -13784,7 +13812,7 @@
       <c r="S566" s="4"/>
       <c r="T566" s="4"/>
     </row>
-    <row r="567" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="4"/>
@@ -13806,7 +13834,7 @@
       <c r="S567" s="4"/>
       <c r="T567" s="4"/>
     </row>
-    <row r="568" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="4"/>
@@ -13828,7 +13856,7 @@
       <c r="S568" s="4"/>
       <c r="T568" s="4"/>
     </row>
-    <row r="569" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="4"/>
@@ -13850,7 +13878,7 @@
       <c r="S569" s="4"/>
       <c r="T569" s="4"/>
     </row>
-    <row r="570" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="4"/>
@@ -13872,7 +13900,7 @@
       <c r="S570" s="4"/>
       <c r="T570" s="4"/>
     </row>
-    <row r="571" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="4"/>
@@ -13894,7 +13922,7 @@
       <c r="S571" s="4"/>
       <c r="T571" s="4"/>
     </row>
-    <row r="572" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="4"/>
@@ -13916,7 +13944,7 @@
       <c r="S572" s="4"/>
       <c r="T572" s="4"/>
     </row>
-    <row r="573" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="4"/>
@@ -13938,7 +13966,7 @@
       <c r="S573" s="4"/>
       <c r="T573" s="4"/>
     </row>
-    <row r="574" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="4"/>
@@ -13960,7 +13988,7 @@
       <c r="S574" s="4"/>
       <c r="T574" s="4"/>
     </row>
-    <row r="575" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="4"/>
@@ -13982,7 +14010,7 @@
       <c r="S575" s="4"/>
       <c r="T575" s="4"/>
     </row>
-    <row r="576" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="4"/>
@@ -14004,7 +14032,7 @@
       <c r="S576" s="4"/>
       <c r="T576" s="4"/>
     </row>
-    <row r="577" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="4"/>
@@ -14026,7 +14054,7 @@
       <c r="S577" s="4"/>
       <c r="T577" s="4"/>
     </row>
-    <row r="578" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="4"/>
@@ -14048,7 +14076,7 @@
       <c r="S578" s="4"/>
       <c r="T578" s="4"/>
     </row>
-    <row r="579" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="4"/>
@@ -14070,7 +14098,7 @@
       <c r="S579" s="4"/>
       <c r="T579" s="4"/>
     </row>
-    <row r="580" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="4"/>
@@ -14092,7 +14120,7 @@
       <c r="S580" s="4"/>
       <c r="T580" s="4"/>
     </row>
-    <row r="581" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="4"/>
@@ -14114,7 +14142,7 @@
       <c r="S581" s="4"/>
       <c r="T581" s="4"/>
     </row>
-    <row r="582" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="4"/>
@@ -14136,7 +14164,7 @@
       <c r="S582" s="4"/>
       <c r="T582" s="4"/>
     </row>
-    <row r="583" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="4"/>
@@ -14158,7 +14186,7 @@
       <c r="S583" s="4"/>
       <c r="T583" s="4"/>
     </row>
-    <row r="584" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="4"/>
@@ -14180,7 +14208,7 @@
       <c r="S584" s="4"/>
       <c r="T584" s="4"/>
     </row>
-    <row r="585" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="4"/>
@@ -14202,7 +14230,7 @@
       <c r="S585" s="4"/>
       <c r="T585" s="4"/>
     </row>
-    <row r="586" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="4"/>
@@ -14224,7 +14252,7 @@
       <c r="S586" s="4"/>
       <c r="T586" s="4"/>
     </row>
-    <row r="587" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="4"/>
@@ -14246,7 +14274,7 @@
       <c r="S587" s="4"/>
       <c r="T587" s="4"/>
     </row>
-    <row r="588" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="4"/>
@@ -14268,7 +14296,7 @@
       <c r="S588" s="4"/>
       <c r="T588" s="4"/>
     </row>
-    <row r="589" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="4"/>
@@ -14290,7 +14318,7 @@
       <c r="S589" s="4"/>
       <c r="T589" s="4"/>
     </row>
-    <row r="590" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="4"/>
@@ -14312,7 +14340,7 @@
       <c r="S590" s="4"/>
       <c r="T590" s="4"/>
     </row>
-    <row r="591" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="4"/>
@@ -14334,7 +14362,7 @@
       <c r="S591" s="4"/>
       <c r="T591" s="4"/>
     </row>
-    <row r="592" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="4"/>
@@ -14356,7 +14384,7 @@
       <c r="S592" s="4"/>
       <c r="T592" s="4"/>
     </row>
-    <row r="593" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="4"/>
@@ -14378,7 +14406,7 @@
       <c r="S593" s="4"/>
       <c r="T593" s="4"/>
     </row>
-    <row r="594" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="4"/>
@@ -14400,7 +14428,7 @@
       <c r="S594" s="4"/>
       <c r="T594" s="4"/>
     </row>
-    <row r="595" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="4"/>
@@ -14422,7 +14450,7 @@
       <c r="S595" s="4"/>
       <c r="T595" s="4"/>
     </row>
-    <row r="596" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="4"/>
@@ -14444,7 +14472,7 @@
       <c r="S596" s="4"/>
       <c r="T596" s="4"/>
     </row>
-    <row r="597" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="4"/>
@@ -14466,7 +14494,7 @@
       <c r="S597" s="4"/>
       <c r="T597" s="4"/>
     </row>
-    <row r="598" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="4"/>
@@ -14488,7 +14516,7 @@
       <c r="S598" s="4"/>
       <c r="T598" s="4"/>
     </row>
-    <row r="599" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="4"/>
@@ -14510,7 +14538,7 @@
       <c r="S599" s="4"/>
       <c r="T599" s="4"/>
     </row>
-    <row r="600" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="4"/>
@@ -14532,7 +14560,7 @@
       <c r="S600" s="4"/>
       <c r="T600" s="4"/>
     </row>
-    <row r="601" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="4"/>
@@ -14554,7 +14582,7 @@
       <c r="S601" s="4"/>
       <c r="T601" s="4"/>
     </row>
-    <row r="602" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="4"/>
@@ -14576,7 +14604,7 @@
       <c r="S602" s="4"/>
       <c r="T602" s="4"/>
     </row>
-    <row r="603" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="4"/>
@@ -14598,7 +14626,7 @@
       <c r="S603" s="4"/>
       <c r="T603" s="4"/>
     </row>
-    <row r="604" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="4"/>
@@ -14620,7 +14648,7 @@
       <c r="S604" s="4"/>
       <c r="T604" s="4"/>
     </row>
-    <row r="605" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="4"/>
@@ -14642,7 +14670,7 @@
       <c r="S605" s="4"/>
       <c r="T605" s="4"/>
     </row>
-    <row r="606" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="4"/>
@@ -14664,7 +14692,7 @@
       <c r="S606" s="4"/>
       <c r="T606" s="4"/>
     </row>
-    <row r="607" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="4"/>
@@ -14686,7 +14714,7 @@
       <c r="S607" s="4"/>
       <c r="T607" s="4"/>
     </row>
-    <row r="608" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="4"/>
@@ -14708,7 +14736,7 @@
       <c r="S608" s="4"/>
       <c r="T608" s="4"/>
     </row>
-    <row r="609" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="4"/>
@@ -14730,7 +14758,7 @@
       <c r="S609" s="4"/>
       <c r="T609" s="4"/>
     </row>
-    <row r="610" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="4"/>
@@ -14752,7 +14780,7 @@
       <c r="S610" s="4"/>
       <c r="T610" s="4"/>
     </row>
-    <row r="611" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="4"/>
@@ -14774,7 +14802,7 @@
       <c r="S611" s="4"/>
       <c r="T611" s="4"/>
     </row>
-    <row r="612" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="4"/>
@@ -14796,7 +14824,7 @@
       <c r="S612" s="4"/>
       <c r="T612" s="4"/>
     </row>
-    <row r="613" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="4"/>
@@ -14818,7 +14846,7 @@
       <c r="S613" s="4"/>
       <c r="T613" s="4"/>
     </row>
-    <row r="614" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="4"/>
@@ -14840,7 +14868,7 @@
       <c r="S614" s="4"/>
       <c r="T614" s="4"/>
     </row>
-    <row r="615" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="4"/>
@@ -14862,7 +14890,7 @@
       <c r="S615" s="4"/>
       <c r="T615" s="4"/>
     </row>
-    <row r="616" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="4"/>
@@ -14884,7 +14912,7 @@
       <c r="S616" s="4"/>
       <c r="T616" s="4"/>
     </row>
-    <row r="617" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="4"/>
@@ -14906,7 +14934,7 @@
       <c r="S617" s="4"/>
       <c r="T617" s="4"/>
     </row>
-    <row r="618" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="4"/>
@@ -14928,7 +14956,7 @@
       <c r="S618" s="4"/>
       <c r="T618" s="4"/>
     </row>
-    <row r="619" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="4"/>
@@ -14950,7 +14978,7 @@
       <c r="S619" s="4"/>
       <c r="T619" s="4"/>
     </row>
-    <row r="620" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="4"/>
@@ -14972,7 +15000,7 @@
       <c r="S620" s="4"/>
       <c r="T620" s="4"/>
     </row>
-    <row r="621" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="4"/>
@@ -14994,7 +15022,7 @@
       <c r="S621" s="4"/>
       <c r="T621" s="4"/>
     </row>
-    <row r="622" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="4"/>
@@ -15016,7 +15044,7 @@
       <c r="S622" s="4"/>
       <c r="T622" s="4"/>
     </row>
-    <row r="623" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="4"/>
@@ -15038,7 +15066,7 @@
       <c r="S623" s="4"/>
       <c r="T623" s="4"/>
     </row>
-    <row r="624" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="4"/>
@@ -15060,7 +15088,7 @@
       <c r="S624" s="4"/>
       <c r="T624" s="4"/>
     </row>
-    <row r="625" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="4"/>
@@ -15082,7 +15110,7 @@
       <c r="S625" s="4"/>
       <c r="T625" s="4"/>
     </row>
-    <row r="626" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="4"/>
@@ -15104,7 +15132,7 @@
       <c r="S626" s="4"/>
       <c r="T626" s="4"/>
     </row>
-    <row r="627" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="4"/>
@@ -15126,7 +15154,7 @@
       <c r="S627" s="4"/>
       <c r="T627" s="4"/>
     </row>
-    <row r="628" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="4"/>
@@ -15148,7 +15176,7 @@
       <c r="S628" s="4"/>
       <c r="T628" s="4"/>
     </row>
-    <row r="629" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="4"/>
@@ -15170,7 +15198,7 @@
       <c r="S629" s="4"/>
       <c r="T629" s="4"/>
     </row>
-    <row r="630" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="4"/>
@@ -15192,7 +15220,7 @@
       <c r="S630" s="4"/>
       <c r="T630" s="4"/>
     </row>
-    <row r="631" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="4"/>
@@ -15214,7 +15242,7 @@
       <c r="S631" s="4"/>
       <c r="T631" s="4"/>
     </row>
-    <row r="632" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="4"/>
@@ -15236,7 +15264,7 @@
       <c r="S632" s="4"/>
       <c r="T632" s="4"/>
     </row>
-    <row r="633" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="4"/>
@@ -15258,7 +15286,7 @@
       <c r="S633" s="4"/>
       <c r="T633" s="4"/>
     </row>
-    <row r="634" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="4"/>
@@ -15280,7 +15308,7 @@
       <c r="S634" s="4"/>
       <c r="T634" s="4"/>
     </row>
-    <row r="635" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="4"/>
@@ -15302,7 +15330,7 @@
       <c r="S635" s="4"/>
       <c r="T635" s="4"/>
     </row>
-    <row r="636" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="4"/>
@@ -15324,7 +15352,7 @@
       <c r="S636" s="4"/>
       <c r="T636" s="4"/>
     </row>
-    <row r="637" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="4"/>
@@ -15346,7 +15374,7 @@
       <c r="S637" s="4"/>
       <c r="T637" s="4"/>
     </row>
-    <row r="638" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="4"/>
@@ -15368,7 +15396,7 @@
       <c r="S638" s="4"/>
       <c r="T638" s="4"/>
     </row>
-    <row r="639" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="4"/>
@@ -15390,7 +15418,7 @@
       <c r="S639" s="4"/>
       <c r="T639" s="4"/>
     </row>
-    <row r="640" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="4"/>
@@ -15412,7 +15440,7 @@
       <c r="S640" s="4"/>
       <c r="T640" s="4"/>
     </row>
-    <row r="641" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="4"/>
@@ -15434,7 +15462,7 @@
       <c r="S641" s="4"/>
       <c r="T641" s="4"/>
     </row>
-    <row r="642" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="4"/>
@@ -15456,7 +15484,7 @@
       <c r="S642" s="4"/>
       <c r="T642" s="4"/>
     </row>
-    <row r="643" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="4"/>
@@ -15478,7 +15506,7 @@
       <c r="S643" s="4"/>
       <c r="T643" s="4"/>
     </row>
-    <row r="644" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="4"/>
@@ -15500,7 +15528,7 @@
       <c r="S644" s="4"/>
       <c r="T644" s="4"/>
     </row>
-    <row r="645" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="4"/>
@@ -15522,7 +15550,7 @@
       <c r="S645" s="4"/>
       <c r="T645" s="4"/>
     </row>
-    <row r="646" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="4"/>
@@ -15544,7 +15572,7 @@
       <c r="S646" s="4"/>
       <c r="T646" s="4"/>
     </row>
-    <row r="647" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="4"/>
@@ -15566,7 +15594,7 @@
       <c r="S647" s="4"/>
       <c r="T647" s="4"/>
     </row>
-    <row r="648" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="4"/>
@@ -15588,7 +15616,7 @@
       <c r="S648" s="4"/>
       <c r="T648" s="4"/>
     </row>
-    <row r="649" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="4"/>
@@ -15610,7 +15638,7 @@
       <c r="S649" s="4"/>
       <c r="T649" s="4"/>
     </row>
-    <row r="650" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="4"/>
@@ -15632,7 +15660,7 @@
       <c r="S650" s="4"/>
       <c r="T650" s="4"/>
     </row>
-    <row r="651" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="4"/>
@@ -15654,7 +15682,7 @@
       <c r="S651" s="4"/>
       <c r="T651" s="4"/>
     </row>
-    <row r="652" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="4"/>
@@ -15676,7 +15704,7 @@
       <c r="S652" s="4"/>
       <c r="T652" s="4"/>
     </row>
-    <row r="653" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="4"/>
@@ -15698,7 +15726,7 @@
       <c r="S653" s="4"/>
       <c r="T653" s="4"/>
     </row>
-    <row r="654" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="4"/>
@@ -15720,7 +15748,7 @@
       <c r="S654" s="4"/>
       <c r="T654" s="4"/>
     </row>
-    <row r="655" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="4"/>
@@ -15742,7 +15770,7 @@
       <c r="S655" s="4"/>
       <c r="T655" s="4"/>
     </row>
-    <row r="656" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="4"/>
@@ -15764,7 +15792,7 @@
       <c r="S656" s="4"/>
       <c r="T656" s="4"/>
     </row>
-    <row r="657" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="4"/>
@@ -15786,7 +15814,7 @@
       <c r="S657" s="4"/>
       <c r="T657" s="4"/>
     </row>
-    <row r="658" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="4"/>
@@ -15808,7 +15836,7 @@
       <c r="S658" s="4"/>
       <c r="T658" s="4"/>
     </row>
-    <row r="659" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="4"/>
@@ -15830,7 +15858,7 @@
       <c r="S659" s="4"/>
       <c r="T659" s="4"/>
     </row>
-    <row r="660" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="4"/>
@@ -15852,7 +15880,7 @@
       <c r="S660" s="4"/>
       <c r="T660" s="4"/>
     </row>
-    <row r="661" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="4"/>
@@ -15874,7 +15902,7 @@
       <c r="S661" s="4"/>
       <c r="T661" s="4"/>
     </row>
-    <row r="662" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="4"/>
@@ -15896,7 +15924,7 @@
       <c r="S662" s="4"/>
       <c r="T662" s="4"/>
     </row>
-    <row r="663" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="4"/>
@@ -15918,7 +15946,7 @@
       <c r="S663" s="4"/>
       <c r="T663" s="4"/>
     </row>
-    <row r="664" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="4"/>
@@ -15940,7 +15968,7 @@
       <c r="S664" s="4"/>
       <c r="T664" s="4"/>
     </row>
-    <row r="665" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="4"/>
@@ -15962,7 +15990,7 @@
       <c r="S665" s="4"/>
       <c r="T665" s="4"/>
     </row>
-    <row r="666" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="4"/>
@@ -15984,7 +16012,7 @@
       <c r="S666" s="4"/>
       <c r="T666" s="4"/>
     </row>
-    <row r="667" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="4"/>
@@ -16006,7 +16034,7 @@
       <c r="S667" s="4"/>
       <c r="T667" s="4"/>
     </row>
-    <row r="668" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="4"/>
@@ -16028,7 +16056,7 @@
       <c r="S668" s="4"/>
       <c r="T668" s="4"/>
     </row>
-    <row r="669" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="4"/>
@@ -16050,7 +16078,7 @@
       <c r="S669" s="4"/>
       <c r="T669" s="4"/>
     </row>
-    <row r="670" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="4"/>
@@ -16072,7 +16100,7 @@
       <c r="S670" s="4"/>
       <c r="T670" s="4"/>
     </row>
-    <row r="671" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="4"/>
@@ -16094,7 +16122,7 @@
       <c r="S671" s="4"/>
       <c r="T671" s="4"/>
     </row>
-    <row r="672" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="4"/>
@@ -16116,7 +16144,7 @@
       <c r="S672" s="4"/>
       <c r="T672" s="4"/>
     </row>
-    <row r="673" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="4"/>
@@ -16138,7 +16166,7 @@
       <c r="S673" s="4"/>
       <c r="T673" s="4"/>
     </row>
-    <row r="674" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="4"/>
@@ -16160,7 +16188,7 @@
       <c r="S674" s="4"/>
       <c r="T674" s="4"/>
     </row>
-    <row r="675" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="4"/>
@@ -16182,7 +16210,7 @@
       <c r="S675" s="4"/>
       <c r="T675" s="4"/>
     </row>
-    <row r="676" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="4"/>
@@ -16204,7 +16232,7 @@
       <c r="S676" s="4"/>
       <c r="T676" s="4"/>
     </row>
-    <row r="677" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="4"/>
@@ -16226,7 +16254,7 @@
       <c r="S677" s="4"/>
       <c r="T677" s="4"/>
     </row>
-    <row r="678" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="4"/>
@@ -16248,7 +16276,7 @@
       <c r="S678" s="4"/>
       <c r="T678" s="4"/>
     </row>
-    <row r="679" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="4"/>
@@ -16270,7 +16298,7 @@
       <c r="S679" s="4"/>
       <c r="T679" s="4"/>
     </row>
-    <row r="680" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="4"/>
@@ -16292,7 +16320,7 @@
       <c r="S680" s="4"/>
       <c r="T680" s="4"/>
     </row>
-    <row r="681" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="4"/>
@@ -16314,7 +16342,7 @@
       <c r="S681" s="4"/>
       <c r="T681" s="4"/>
     </row>
-    <row r="682" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="4"/>
@@ -16336,7 +16364,7 @@
       <c r="S682" s="4"/>
       <c r="T682" s="4"/>
     </row>
-    <row r="683" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="4"/>
@@ -16358,7 +16386,7 @@
       <c r="S683" s="4"/>
       <c r="T683" s="4"/>
     </row>
-    <row r="684" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="4"/>
@@ -16380,7 +16408,7 @@
       <c r="S684" s="4"/>
       <c r="T684" s="4"/>
     </row>
-    <row r="685" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="4"/>
@@ -16402,7 +16430,7 @@
       <c r="S685" s="4"/>
       <c r="T685" s="4"/>
     </row>
-    <row r="686" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="4"/>
@@ -16424,7 +16452,7 @@
       <c r="S686" s="4"/>
       <c r="T686" s="4"/>
     </row>
-    <row r="687" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="4"/>
@@ -16446,7 +16474,7 @@
       <c r="S687" s="4"/>
       <c r="T687" s="4"/>
     </row>
-    <row r="688" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="4"/>
@@ -16468,7 +16496,7 @@
       <c r="S688" s="4"/>
       <c r="T688" s="4"/>
     </row>
-    <row r="689" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="4"/>
@@ -16490,7 +16518,7 @@
       <c r="S689" s="4"/>
       <c r="T689" s="4"/>
     </row>
-    <row r="690" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="4"/>
@@ -16512,7 +16540,7 @@
       <c r="S690" s="4"/>
       <c r="T690" s="4"/>
     </row>
-    <row r="691" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="4"/>
@@ -16534,7 +16562,7 @@
       <c r="S691" s="4"/>
       <c r="T691" s="4"/>
     </row>
-    <row r="692" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="4"/>
@@ -16556,7 +16584,7 @@
       <c r="S692" s="4"/>
       <c r="T692" s="4"/>
     </row>
-    <row r="693" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="4"/>
@@ -16578,7 +16606,7 @@
       <c r="S693" s="4"/>
       <c r="T693" s="4"/>
     </row>
-    <row r="694" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="4"/>
@@ -16600,7 +16628,7 @@
       <c r="S694" s="4"/>
       <c r="T694" s="4"/>
     </row>
-    <row r="695" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="4"/>
@@ -16622,7 +16650,7 @@
       <c r="S695" s="4"/>
       <c r="T695" s="4"/>
     </row>
-    <row r="696" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="4"/>
@@ -16644,7 +16672,7 @@
       <c r="S696" s="4"/>
       <c r="T696" s="4"/>
     </row>
-    <row r="697" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="4"/>
@@ -16666,7 +16694,7 @@
       <c r="S697" s="4"/>
       <c r="T697" s="4"/>
     </row>
-    <row r="698" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="4"/>
@@ -16688,7 +16716,7 @@
       <c r="S698" s="4"/>
       <c r="T698" s="4"/>
     </row>
-    <row r="699" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="4"/>
@@ -16710,7 +16738,7 @@
       <c r="S699" s="4"/>
       <c r="T699" s="4"/>
     </row>
-    <row r="700" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="4"/>
@@ -16732,7 +16760,7 @@
       <c r="S700" s="4"/>
       <c r="T700" s="4"/>
     </row>
-    <row r="701" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="4"/>
@@ -16754,7 +16782,7 @@
       <c r="S701" s="4"/>
       <c r="T701" s="4"/>
     </row>
-    <row r="702" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="4"/>
@@ -16776,7 +16804,7 @@
       <c r="S702" s="4"/>
       <c r="T702" s="4"/>
     </row>
-    <row r="703" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="4"/>
@@ -16798,7 +16826,7 @@
       <c r="S703" s="4"/>
       <c r="T703" s="4"/>
     </row>
-    <row r="704" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="4"/>
@@ -16820,7 +16848,7 @@
       <c r="S704" s="4"/>
       <c r="T704" s="4"/>
     </row>
-    <row r="705" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="4"/>
@@ -16842,7 +16870,7 @@
       <c r="S705" s="4"/>
       <c r="T705" s="4"/>
     </row>
-    <row r="706" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="4"/>
@@ -16864,7 +16892,7 @@
       <c r="S706" s="4"/>
       <c r="T706" s="4"/>
     </row>
-    <row r="707" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="4"/>
@@ -16886,7 +16914,7 @@
       <c r="S707" s="4"/>
       <c r="T707" s="4"/>
     </row>
-    <row r="708" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="4"/>
@@ -16908,7 +16936,7 @@
       <c r="S708" s="4"/>
       <c r="T708" s="4"/>
     </row>
-    <row r="709" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="4"/>
@@ -16930,7 +16958,7 @@
       <c r="S709" s="4"/>
       <c r="T709" s="4"/>
     </row>
-    <row r="710" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="4"/>
@@ -16952,7 +16980,7 @@
       <c r="S710" s="4"/>
       <c r="T710" s="4"/>
     </row>
-    <row r="711" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="4"/>
@@ -16974,7 +17002,7 @@
       <c r="S711" s="4"/>
       <c r="T711" s="4"/>
     </row>
-    <row r="712" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="4"/>
@@ -16996,7 +17024,7 @@
       <c r="S712" s="4"/>
       <c r="T712" s="4"/>
     </row>
-    <row r="713" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="4"/>
@@ -17018,7 +17046,7 @@
       <c r="S713" s="4"/>
       <c r="T713" s="4"/>
     </row>
-    <row r="714" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="4"/>
@@ -17040,7 +17068,7 @@
       <c r="S714" s="4"/>
       <c r="T714" s="4"/>
     </row>
-    <row r="715" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="4"/>
@@ -17062,7 +17090,7 @@
       <c r="S715" s="4"/>
       <c r="T715" s="4"/>
     </row>
-    <row r="716" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="4"/>
@@ -17084,7 +17112,7 @@
       <c r="S716" s="4"/>
       <c r="T716" s="4"/>
     </row>
-    <row r="717" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="4"/>
@@ -17106,7 +17134,7 @@
       <c r="S717" s="4"/>
       <c r="T717" s="4"/>
     </row>
-    <row r="718" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="4"/>
@@ -17128,7 +17156,7 @@
       <c r="S718" s="4"/>
       <c r="T718" s="4"/>
     </row>
-    <row r="719" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="4"/>
@@ -17150,7 +17178,7 @@
       <c r="S719" s="4"/>
       <c r="T719" s="4"/>
     </row>
-    <row r="720" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="4"/>
@@ -17172,7 +17200,7 @@
       <c r="S720" s="4"/>
       <c r="T720" s="4"/>
     </row>
-    <row r="721" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="4"/>
@@ -17194,7 +17222,7 @@
       <c r="S721" s="4"/>
       <c r="T721" s="4"/>
     </row>
-    <row r="722" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="4"/>
@@ -17216,7 +17244,7 @@
       <c r="S722" s="4"/>
       <c r="T722" s="4"/>
     </row>
-    <row r="723" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="4"/>
@@ -17238,7 +17266,7 @@
       <c r="S723" s="4"/>
       <c r="T723" s="4"/>
     </row>
-    <row r="724" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="4"/>
@@ -17260,7 +17288,7 @@
       <c r="S724" s="4"/>
       <c r="T724" s="4"/>
     </row>
-    <row r="725" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="4"/>
@@ -17282,7 +17310,7 @@
       <c r="S725" s="4"/>
       <c r="T725" s="4"/>
     </row>
-    <row r="726" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="4"/>
@@ -17304,7 +17332,7 @@
       <c r="S726" s="4"/>
       <c r="T726" s="4"/>
     </row>
-    <row r="727" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="4"/>
@@ -17326,7 +17354,7 @@
       <c r="S727" s="4"/>
       <c r="T727" s="4"/>
     </row>
-    <row r="728" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="4"/>
@@ -17348,7 +17376,7 @@
       <c r="S728" s="4"/>
       <c r="T728" s="4"/>
     </row>
-    <row r="729" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="4"/>
@@ -17370,7 +17398,7 @@
       <c r="S729" s="4"/>
       <c r="T729" s="4"/>
     </row>
-    <row r="730" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="4"/>
@@ -17392,7 +17420,7 @@
       <c r="S730" s="4"/>
       <c r="T730" s="4"/>
     </row>
-    <row r="731" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="4"/>
@@ -17414,7 +17442,7 @@
       <c r="S731" s="4"/>
       <c r="T731" s="4"/>
     </row>
-    <row r="732" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="4"/>
@@ -17436,7 +17464,7 @@
       <c r="S732" s="4"/>
       <c r="T732" s="4"/>
     </row>
-    <row r="733" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="4"/>
@@ -17458,7 +17486,7 @@
       <c r="S733" s="4"/>
       <c r="T733" s="4"/>
     </row>
-    <row r="734" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="4"/>
@@ -17480,7 +17508,7 @@
       <c r="S734" s="4"/>
       <c r="T734" s="4"/>
     </row>
-    <row r="735" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="4"/>
@@ -17502,7 +17530,7 @@
       <c r="S735" s="4"/>
       <c r="T735" s="4"/>
     </row>
-    <row r="736" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="4"/>
@@ -17524,7 +17552,7 @@
       <c r="S736" s="4"/>
       <c r="T736" s="4"/>
     </row>
-    <row r="737" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="4"/>
@@ -17546,7 +17574,7 @@
       <c r="S737" s="4"/>
       <c r="T737" s="4"/>
     </row>
-    <row r="738" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="4"/>
@@ -17568,7 +17596,7 @@
       <c r="S738" s="4"/>
       <c r="T738" s="4"/>
     </row>
-    <row r="739" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="4"/>
@@ -17590,7 +17618,7 @@
       <c r="S739" s="4"/>
       <c r="T739" s="4"/>
     </row>
-    <row r="740" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="4"/>
@@ -17612,7 +17640,7 @@
       <c r="S740" s="4"/>
       <c r="T740" s="4"/>
     </row>
-    <row r="741" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="4"/>
@@ -17634,7 +17662,7 @@
       <c r="S741" s="4"/>
       <c r="T741" s="4"/>
     </row>
-    <row r="742" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="4"/>
@@ -17656,7 +17684,7 @@
       <c r="S742" s="4"/>
       <c r="T742" s="4"/>
     </row>
-    <row r="743" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="4"/>
@@ -17678,7 +17706,7 @@
       <c r="S743" s="4"/>
       <c r="T743" s="4"/>
     </row>
-    <row r="744" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="4"/>
@@ -17700,7 +17728,7 @@
       <c r="S744" s="4"/>
       <c r="T744" s="4"/>
     </row>
-    <row r="745" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="4"/>
@@ -17722,7 +17750,7 @@
       <c r="S745" s="4"/>
       <c r="T745" s="4"/>
     </row>
-    <row r="746" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="4"/>
@@ -17744,7 +17772,7 @@
       <c r="S746" s="4"/>
       <c r="T746" s="4"/>
     </row>
-    <row r="747" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="4"/>
@@ -17766,7 +17794,7 @@
       <c r="S747" s="4"/>
       <c r="T747" s="4"/>
     </row>
-    <row r="748" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="4"/>
@@ -17788,7 +17816,7 @@
       <c r="S748" s="4"/>
       <c r="T748" s="4"/>
     </row>
-    <row r="749" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="4"/>
@@ -17810,7 +17838,7 @@
       <c r="S749" s="4"/>
       <c r="T749" s="4"/>
     </row>
-    <row r="750" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="4"/>
@@ -17832,7 +17860,7 @@
       <c r="S750" s="4"/>
       <c r="T750" s="4"/>
     </row>
-    <row r="751" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="4"/>
@@ -17854,7 +17882,7 @@
       <c r="S751" s="4"/>
       <c r="T751" s="4"/>
     </row>
-    <row r="752" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="4"/>
@@ -17876,7 +17904,7 @@
       <c r="S752" s="4"/>
       <c r="T752" s="4"/>
     </row>
-    <row r="753" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="4"/>
@@ -17898,7 +17926,7 @@
       <c r="S753" s="4"/>
       <c r="T753" s="4"/>
     </row>
-    <row r="754" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="4"/>
@@ -17920,7 +17948,7 @@
       <c r="S754" s="4"/>
       <c r="T754" s="4"/>
     </row>
-    <row r="755" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="4"/>
@@ -17942,7 +17970,7 @@
       <c r="S755" s="4"/>
       <c r="T755" s="4"/>
     </row>
-    <row r="756" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="4"/>
@@ -17964,7 +17992,7 @@
       <c r="S756" s="4"/>
       <c r="T756" s="4"/>
     </row>
-    <row r="757" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="4"/>
@@ -17986,7 +18014,7 @@
       <c r="S757" s="4"/>
       <c r="T757" s="4"/>
     </row>
-    <row r="758" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="4"/>
@@ -18008,7 +18036,7 @@
       <c r="S758" s="4"/>
       <c r="T758" s="4"/>
     </row>
-    <row r="759" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="4"/>
@@ -18030,7 +18058,7 @@
       <c r="S759" s="4"/>
       <c r="T759" s="4"/>
     </row>
-    <row r="760" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="4"/>
@@ -18052,7 +18080,7 @@
       <c r="S760" s="4"/>
       <c r="T760" s="4"/>
     </row>
-    <row r="761" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="4"/>
@@ -18074,7 +18102,7 @@
       <c r="S761" s="4"/>
       <c r="T761" s="4"/>
     </row>
-    <row r="762" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="4"/>
@@ -18096,7 +18124,7 @@
       <c r="S762" s="4"/>
       <c r="T762" s="4"/>
     </row>
-    <row r="763" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="4"/>
@@ -18118,7 +18146,7 @@
       <c r="S763" s="4"/>
       <c r="T763" s="4"/>
     </row>
-    <row r="764" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="4"/>
@@ -18140,7 +18168,7 @@
       <c r="S764" s="4"/>
       <c r="T764" s="4"/>
     </row>
-    <row r="765" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="4"/>
@@ -18162,7 +18190,7 @@
       <c r="S765" s="4"/>
       <c r="T765" s="4"/>
     </row>
-    <row r="766" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="4"/>
@@ -18184,7 +18212,7 @@
       <c r="S766" s="4"/>
       <c r="T766" s="4"/>
     </row>
-    <row r="767" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="4"/>
@@ -18206,7 +18234,7 @@
       <c r="S767" s="4"/>
       <c r="T767" s="4"/>
     </row>
-    <row r="768" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="4"/>
@@ -18228,7 +18256,7 @@
       <c r="S768" s="4"/>
       <c r="T768" s="4"/>
     </row>
-    <row r="769" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="4"/>
@@ -18250,7 +18278,7 @@
       <c r="S769" s="4"/>
       <c r="T769" s="4"/>
     </row>
-    <row r="770" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="4"/>
@@ -18272,7 +18300,7 @@
       <c r="S770" s="4"/>
       <c r="T770" s="4"/>
     </row>
-    <row r="771" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="4"/>
@@ -18294,7 +18322,7 @@
       <c r="S771" s="4"/>
       <c r="T771" s="4"/>
     </row>
-    <row r="772" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="4"/>
@@ -18316,7 +18344,7 @@
       <c r="S772" s="4"/>
       <c r="T772" s="4"/>
     </row>
-    <row r="773" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="4"/>
@@ -18338,7 +18366,7 @@
       <c r="S773" s="4"/>
       <c r="T773" s="4"/>
     </row>
-    <row r="774" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="4"/>
@@ -18360,7 +18388,7 @@
       <c r="S774" s="4"/>
       <c r="T774" s="4"/>
     </row>
-    <row r="775" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="4"/>
@@ -18382,7 +18410,7 @@
       <c r="S775" s="4"/>
       <c r="T775" s="4"/>
     </row>
-    <row r="776" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="4"/>
@@ -18404,7 +18432,7 @@
       <c r="S776" s="4"/>
       <c r="T776" s="4"/>
     </row>
-    <row r="777" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="4"/>
@@ -18426,7 +18454,7 @@
       <c r="S777" s="4"/>
       <c r="T777" s="4"/>
     </row>
-    <row r="778" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="4"/>
@@ -18448,7 +18476,7 @@
       <c r="S778" s="4"/>
       <c r="T778" s="4"/>
     </row>
-    <row r="779" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="4"/>
@@ -18470,7 +18498,7 @@
       <c r="S779" s="4"/>
       <c r="T779" s="4"/>
     </row>
-    <row r="780" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="4"/>
@@ -18492,7 +18520,7 @@
       <c r="S780" s="4"/>
       <c r="T780" s="4"/>
     </row>
-    <row r="781" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="4"/>
@@ -18514,7 +18542,7 @@
       <c r="S781" s="4"/>
       <c r="T781" s="4"/>
     </row>
-    <row r="782" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="4"/>
@@ -18536,7 +18564,7 @@
       <c r="S782" s="4"/>
       <c r="T782" s="4"/>
     </row>
-    <row r="783" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="4"/>
@@ -18558,7 +18586,7 @@
       <c r="S783" s="4"/>
       <c r="T783" s="4"/>
     </row>
-    <row r="784" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="4"/>
@@ -18580,7 +18608,7 @@
       <c r="S784" s="4"/>
       <c r="T784" s="4"/>
     </row>
-    <row r="785" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="4"/>
@@ -18602,7 +18630,7 @@
       <c r="S785" s="4"/>
       <c r="T785" s="4"/>
     </row>
-    <row r="786" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="4"/>
@@ -18624,7 +18652,7 @@
       <c r="S786" s="4"/>
       <c r="T786" s="4"/>
     </row>
-    <row r="787" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="4"/>
@@ -18646,7 +18674,7 @@
       <c r="S787" s="4"/>
       <c r="T787" s="4"/>
     </row>
-    <row r="788" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="4"/>
@@ -18668,7 +18696,7 @@
       <c r="S788" s="4"/>
       <c r="T788" s="4"/>
     </row>
-    <row r="789" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="4"/>
@@ -18690,7 +18718,7 @@
       <c r="S789" s="4"/>
       <c r="T789" s="4"/>
     </row>
-    <row r="790" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="4"/>
@@ -18712,7 +18740,7 @@
       <c r="S790" s="4"/>
       <c r="T790" s="4"/>
     </row>
-    <row r="791" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="4"/>
@@ -18734,7 +18762,7 @@
       <c r="S791" s="4"/>
       <c r="T791" s="4"/>
     </row>
-    <row r="792" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="4"/>
@@ -18756,7 +18784,7 @@
       <c r="S792" s="4"/>
       <c r="T792" s="4"/>
     </row>
-    <row r="793" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="4"/>
@@ -18778,7 +18806,7 @@
       <c r="S793" s="4"/>
       <c r="T793" s="4"/>
     </row>
-    <row r="794" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="4"/>
@@ -18800,7 +18828,7 @@
       <c r="S794" s="4"/>
       <c r="T794" s="4"/>
     </row>
-    <row r="795" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="4"/>
@@ -18822,7 +18850,7 @@
       <c r="S795" s="4"/>
       <c r="T795" s="4"/>
     </row>
-    <row r="796" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="4"/>
@@ -18844,7 +18872,7 @@
       <c r="S796" s="4"/>
       <c r="T796" s="4"/>
     </row>
-    <row r="797" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="4"/>
@@ -18866,7 +18894,7 @@
       <c r="S797" s="4"/>
       <c r="T797" s="4"/>
     </row>
-    <row r="798" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="4"/>
@@ -18888,7 +18916,7 @@
       <c r="S798" s="4"/>
       <c r="T798" s="4"/>
     </row>
-    <row r="799" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="4"/>
@@ -18910,7 +18938,7 @@
       <c r="S799" s="4"/>
       <c r="T799" s="4"/>
     </row>
-    <row r="800" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="4"/>
@@ -18932,7 +18960,7 @@
       <c r="S800" s="4"/>
       <c r="T800" s="4"/>
     </row>
-    <row r="801" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="4"/>
@@ -18954,7 +18982,7 @@
       <c r="S801" s="4"/>
       <c r="T801" s="4"/>
     </row>
-    <row r="802" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="4"/>
@@ -18976,7 +19004,7 @@
       <c r="S802" s="4"/>
       <c r="T802" s="4"/>
     </row>
-    <row r="803" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="4"/>
@@ -18998,7 +19026,7 @@
       <c r="S803" s="4"/>
       <c r="T803" s="4"/>
     </row>
-    <row r="804" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="4"/>
@@ -19020,7 +19048,7 @@
       <c r="S804" s="4"/>
       <c r="T804" s="4"/>
     </row>
-    <row r="805" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="4"/>
@@ -19042,7 +19070,7 @@
       <c r="S805" s="4"/>
       <c r="T805" s="4"/>
     </row>
-    <row r="806" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="4"/>
@@ -19064,7 +19092,7 @@
       <c r="S806" s="4"/>
       <c r="T806" s="4"/>
     </row>
-    <row r="807" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="4"/>
@@ -19086,7 +19114,7 @@
       <c r="S807" s="4"/>
       <c r="T807" s="4"/>
     </row>
-    <row r="808" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="4"/>
@@ -19108,7 +19136,7 @@
       <c r="S808" s="4"/>
       <c r="T808" s="4"/>
     </row>
-    <row r="809" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="4"/>
@@ -19130,7 +19158,7 @@
       <c r="S809" s="4"/>
       <c r="T809" s="4"/>
     </row>
-    <row r="810" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="4"/>
@@ -19152,7 +19180,7 @@
       <c r="S810" s="4"/>
       <c r="T810" s="4"/>
     </row>
-    <row r="811" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="4"/>
@@ -19174,7 +19202,7 @@
       <c r="S811" s="4"/>
       <c r="T811" s="4"/>
     </row>
-    <row r="812" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="4"/>
@@ -19196,7 +19224,7 @@
       <c r="S812" s="4"/>
       <c r="T812" s="4"/>
     </row>
-    <row r="813" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="4"/>
@@ -19218,7 +19246,7 @@
       <c r="S813" s="4"/>
       <c r="T813" s="4"/>
     </row>
-    <row r="814" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="4"/>
@@ -19240,7 +19268,7 @@
       <c r="S814" s="4"/>
       <c r="T814" s="4"/>
     </row>
-    <row r="815" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="4"/>
@@ -19262,7 +19290,7 @@
       <c r="S815" s="4"/>
       <c r="T815" s="4"/>
     </row>
-    <row r="816" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="4"/>
@@ -19284,7 +19312,7 @@
       <c r="S816" s="4"/>
       <c r="T816" s="4"/>
     </row>
-    <row r="817" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="4"/>
@@ -19306,7 +19334,7 @@
       <c r="S817" s="4"/>
       <c r="T817" s="4"/>
     </row>
-    <row r="818" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="4"/>
@@ -19328,7 +19356,7 @@
       <c r="S818" s="4"/>
       <c r="T818" s="4"/>
     </row>
-    <row r="819" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="4"/>
@@ -19350,7 +19378,7 @@
       <c r="S819" s="4"/>
       <c r="T819" s="4"/>
     </row>
-    <row r="820" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="4"/>
@@ -19372,7 +19400,7 @@
       <c r="S820" s="4"/>
       <c r="T820" s="4"/>
     </row>
-    <row r="821" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="4"/>
@@ -19394,7 +19422,7 @@
       <c r="S821" s="4"/>
       <c r="T821" s="4"/>
     </row>
-    <row r="822" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
       <c r="C822" s="4"/>
@@ -19416,7 +19444,7 @@
       <c r="S822" s="4"/>
       <c r="T822" s="4"/>
     </row>
-    <row r="823" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="4"/>
@@ -19438,7 +19466,7 @@
       <c r="S823" s="4"/>
       <c r="T823" s="4"/>
     </row>
-    <row r="824" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="4"/>
@@ -19460,7 +19488,7 @@
       <c r="S824" s="4"/>
       <c r="T824" s="4"/>
     </row>
-    <row r="825" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="4"/>
@@ -19482,7 +19510,7 @@
       <c r="S825" s="4"/>
       <c r="T825" s="4"/>
     </row>
-    <row r="826" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
       <c r="C826" s="4"/>
@@ -19504,7 +19532,7 @@
       <c r="S826" s="4"/>
       <c r="T826" s="4"/>
     </row>
-    <row r="827" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="4"/>
@@ -19526,7 +19554,7 @@
       <c r="S827" s="4"/>
       <c r="T827" s="4"/>
     </row>
-    <row r="828" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
       <c r="C828" s="4"/>
@@ -19548,7 +19576,7 @@
       <c r="S828" s="4"/>
       <c r="T828" s="4"/>
     </row>
-    <row r="829" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="4"/>
@@ -19570,7 +19598,7 @@
       <c r="S829" s="4"/>
       <c r="T829" s="4"/>
     </row>
-    <row r="830" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
       <c r="C830" s="4"/>
@@ -19592,7 +19620,7 @@
       <c r="S830" s="4"/>
       <c r="T830" s="4"/>
     </row>
-    <row r="831" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="4"/>
@@ -19614,7 +19642,7 @@
       <c r="S831" s="4"/>
       <c r="T831" s="4"/>
     </row>
-    <row r="832" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
       <c r="C832" s="4"/>
@@ -19636,7 +19664,7 @@
       <c r="S832" s="4"/>
       <c r="T832" s="4"/>
     </row>
-    <row r="833" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="4"/>
@@ -19658,7 +19686,7 @@
       <c r="S833" s="4"/>
       <c r="T833" s="4"/>
     </row>
-    <row r="834" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
       <c r="C834" s="4"/>
@@ -19680,7 +19708,7 @@
       <c r="S834" s="4"/>
       <c r="T834" s="4"/>
     </row>
-    <row r="835" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="4"/>
@@ -19702,7 +19730,7 @@
       <c r="S835" s="4"/>
       <c r="T835" s="4"/>
     </row>
-    <row r="836" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
       <c r="C836" s="4"/>
@@ -19724,7 +19752,7 @@
       <c r="S836" s="4"/>
       <c r="T836" s="4"/>
     </row>
-    <row r="837" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="4"/>
@@ -19746,7 +19774,7 @@
       <c r="S837" s="4"/>
       <c r="T837" s="4"/>
     </row>
-    <row r="838" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
       <c r="C838" s="4"/>
@@ -19768,7 +19796,7 @@
       <c r="S838" s="4"/>
       <c r="T838" s="4"/>
     </row>
-    <row r="839" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="4"/>
@@ -19790,7 +19818,7 @@
       <c r="S839" s="4"/>
       <c r="T839" s="4"/>
     </row>
-    <row r="840" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
       <c r="C840" s="4"/>
@@ -19812,7 +19840,7 @@
       <c r="S840" s="4"/>
       <c r="T840" s="4"/>
     </row>
-    <row r="841" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A841" s="6"/>
       <c r="B841" s="6"/>
       <c r="C841" s="4"/>
@@ -19834,7 +19862,7 @@
       <c r="S841" s="4"/>
       <c r="T841" s="4"/>
     </row>
-    <row r="842" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A842" s="6"/>
       <c r="B842" s="6"/>
       <c r="C842" s="4"/>
@@ -19856,7 +19884,7 @@
       <c r="S842" s="4"/>
       <c r="T842" s="4"/>
     </row>
-    <row r="843" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A843" s="6"/>
       <c r="B843" s="6"/>
       <c r="C843" s="4"/>
@@ -19878,7 +19906,7 @@
       <c r="S843" s="4"/>
       <c r="T843" s="4"/>
     </row>
-    <row r="844" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A844" s="6"/>
       <c r="B844" s="6"/>
       <c r="C844" s="4"/>
@@ -19900,7 +19928,7 @@
       <c r="S844" s="4"/>
       <c r="T844" s="4"/>
     </row>
-    <row r="845" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A845" s="6"/>
       <c r="B845" s="6"/>
       <c r="C845" s="4"/>
@@ -19922,7 +19950,7 @@
       <c r="S845" s="4"/>
       <c r="T845" s="4"/>
     </row>
-    <row r="846" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
       <c r="C846" s="4"/>
@@ -19944,7 +19972,7 @@
       <c r="S846" s="4"/>
       <c r="T846" s="4"/>
     </row>
-    <row r="847" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A847" s="6"/>
       <c r="B847" s="6"/>
       <c r="C847" s="4"/>
@@ -19966,7 +19994,7 @@
       <c r="S847" s="4"/>
       <c r="T847" s="4"/>
     </row>
-    <row r="848" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A848" s="6"/>
       <c r="B848" s="6"/>
       <c r="C848" s="4"/>
@@ -19988,7 +20016,7 @@
       <c r="S848" s="4"/>
       <c r="T848" s="4"/>
     </row>
-    <row r="849" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A849" s="6"/>
       <c r="B849" s="6"/>
       <c r="C849" s="4"/>
@@ -20010,7 +20038,7 @@
       <c r="S849" s="4"/>
       <c r="T849" s="4"/>
     </row>
-    <row r="850" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A850" s="6"/>
       <c r="B850" s="6"/>
       <c r="C850" s="4"/>
@@ -20032,7 +20060,7 @@
       <c r="S850" s="4"/>
       <c r="T850" s="4"/>
     </row>
-    <row r="851" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A851" s="6"/>
       <c r="B851" s="6"/>
       <c r="C851" s="4"/>
@@ -20054,7 +20082,7 @@
       <c r="S851" s="4"/>
       <c r="T851" s="4"/>
     </row>
-    <row r="852" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A852" s="6"/>
       <c r="B852" s="6"/>
       <c r="C852" s="4"/>
@@ -20076,7 +20104,7 @@
       <c r="S852" s="4"/>
       <c r="T852" s="4"/>
     </row>
-    <row r="853" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A853" s="6"/>
       <c r="B853" s="6"/>
       <c r="C853" s="4"/>
@@ -20098,7 +20126,7 @@
       <c r="S853" s="4"/>
       <c r="T853" s="4"/>
     </row>
-    <row r="854" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A854" s="6"/>
       <c r="B854" s="6"/>
       <c r="C854" s="4"/>
@@ -20120,7 +20148,7 @@
       <c r="S854" s="4"/>
       <c r="T854" s="4"/>
     </row>
-    <row r="855" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A855" s="6"/>
       <c r="B855" s="6"/>
       <c r="C855" s="4"/>
@@ -20142,7 +20170,7 @@
       <c r="S855" s="4"/>
       <c r="T855" s="4"/>
     </row>
-    <row r="856" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A856" s="6"/>
       <c r="B856" s="6"/>
       <c r="C856" s="4"/>
@@ -20164,7 +20192,7 @@
       <c r="S856" s="4"/>
       <c r="T856" s="4"/>
     </row>
-    <row r="857" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
       <c r="C857" s="4"/>
@@ -20186,7 +20214,7 @@
       <c r="S857" s="4"/>
       <c r="T857" s="4"/>
     </row>
-    <row r="858" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A858" s="6"/>
       <c r="B858" s="6"/>
       <c r="C858" s="4"/>
@@ -20208,7 +20236,7 @@
       <c r="S858" s="4"/>
       <c r="T858" s="4"/>
     </row>
-    <row r="859" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A859" s="6"/>
       <c r="B859" s="6"/>
       <c r="C859" s="4"/>
@@ -20230,7 +20258,7 @@
       <c r="S859" s="4"/>
       <c r="T859" s="4"/>
     </row>
-    <row r="860" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A860" s="6"/>
       <c r="B860" s="6"/>
       <c r="C860" s="4"/>
@@ -20252,7 +20280,7 @@
       <c r="S860" s="4"/>
       <c r="T860" s="4"/>
     </row>
-    <row r="861" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A861" s="6"/>
       <c r="B861" s="6"/>
       <c r="C861" s="4"/>
@@ -20274,7 +20302,7 @@
       <c r="S861" s="4"/>
       <c r="T861" s="4"/>
     </row>
-    <row r="862" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A862" s="6"/>
       <c r="B862" s="6"/>
       <c r="C862" s="4"/>
@@ -20296,7 +20324,7 @@
       <c r="S862" s="4"/>
       <c r="T862" s="4"/>
     </row>
-    <row r="863" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A863" s="6"/>
       <c r="B863" s="6"/>
       <c r="C863" s="4"/>
@@ -20318,7 +20346,7 @@
       <c r="S863" s="4"/>
       <c r="T863" s="4"/>
     </row>
-    <row r="864" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A864" s="6"/>
       <c r="B864" s="6"/>
       <c r="C864" s="4"/>
@@ -20340,7 +20368,7 @@
       <c r="S864" s="4"/>
       <c r="T864" s="4"/>
     </row>
-    <row r="865" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A865" s="6"/>
       <c r="B865" s="6"/>
       <c r="C865" s="4"/>
@@ -20362,7 +20390,7 @@
       <c r="S865" s="4"/>
       <c r="T865" s="4"/>
     </row>
-    <row r="866" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A866" s="6"/>
       <c r="B866" s="6"/>
       <c r="C866" s="4"/>
@@ -20384,7 +20412,7 @@
       <c r="S866" s="4"/>
       <c r="T866" s="4"/>
     </row>
-    <row r="867" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A867" s="6"/>
       <c r="B867" s="6"/>
       <c r="C867" s="4"/>
@@ -20406,7 +20434,7 @@
       <c r="S867" s="4"/>
       <c r="T867" s="4"/>
     </row>
-    <row r="868" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
       <c r="C868" s="4"/>
@@ -20428,7 +20456,7 @@
       <c r="S868" s="4"/>
       <c r="T868" s="4"/>
     </row>
-    <row r="869" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A869" s="6"/>
       <c r="B869" s="6"/>
       <c r="C869" s="4"/>
@@ -20450,7 +20478,7 @@
       <c r="S869" s="4"/>
       <c r="T869" s="4"/>
     </row>
-    <row r="870" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A870" s="6"/>
       <c r="B870" s="6"/>
       <c r="C870" s="4"/>
@@ -20472,7 +20500,7 @@
       <c r="S870" s="4"/>
       <c r="T870" s="4"/>
     </row>
-    <row r="871" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A871" s="6"/>
       <c r="B871" s="6"/>
       <c r="C871" s="4"/>
@@ -20494,7 +20522,7 @@
       <c r="S871" s="4"/>
       <c r="T871" s="4"/>
     </row>
-    <row r="872" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A872" s="6"/>
       <c r="B872" s="6"/>
       <c r="C872" s="4"/>
@@ -20516,7 +20544,7 @@
       <c r="S872" s="4"/>
       <c r="T872" s="4"/>
     </row>
-    <row r="873" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="6"/>
       <c r="B873" s="6"/>
       <c r="C873" s="4"/>
@@ -20538,7 +20566,7 @@
       <c r="S873" s="4"/>
       <c r="T873" s="4"/>
     </row>
-    <row r="874" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="6"/>
       <c r="B874" s="6"/>
       <c r="C874" s="4"/>
@@ -20560,7 +20588,7 @@
       <c r="S874" s="4"/>
       <c r="T874" s="4"/>
     </row>
-    <row r="875" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A875" s="6"/>
       <c r="B875" s="6"/>
       <c r="C875" s="4"/>
@@ -20582,7 +20610,7 @@
       <c r="S875" s="4"/>
       <c r="T875" s="4"/>
     </row>
-    <row r="876" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A876" s="6"/>
       <c r="B876" s="6"/>
       <c r="C876" s="4"/>
@@ -20604,7 +20632,7 @@
       <c r="S876" s="4"/>
       <c r="T876" s="4"/>
     </row>
-    <row r="877" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A877" s="6"/>
       <c r="B877" s="6"/>
       <c r="C877" s="4"/>
@@ -20626,7 +20654,7 @@
       <c r="S877" s="4"/>
       <c r="T877" s="4"/>
     </row>
-    <row r="878" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A878" s="6"/>
       <c r="B878" s="6"/>
       <c r="C878" s="4"/>
@@ -20648,7 +20676,7 @@
       <c r="S878" s="4"/>
       <c r="T878" s="4"/>
     </row>
-    <row r="879" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
       <c r="C879" s="4"/>
@@ -20670,7 +20698,7 @@
       <c r="S879" s="4"/>
       <c r="T879" s="4"/>
     </row>
-    <row r="880" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A880" s="6"/>
       <c r="B880" s="6"/>
       <c r="C880" s="4"/>
@@ -20692,7 +20720,7 @@
       <c r="S880" s="4"/>
       <c r="T880" s="4"/>
     </row>
-    <row r="881" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A881" s="6"/>
       <c r="B881" s="6"/>
       <c r="C881" s="4"/>
@@ -20714,7 +20742,7 @@
       <c r="S881" s="4"/>
       <c r="T881" s="4"/>
     </row>
-    <row r="882" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A882" s="6"/>
       <c r="B882" s="6"/>
       <c r="C882" s="4"/>
@@ -20736,7 +20764,7 @@
       <c r="S882" s="4"/>
       <c r="T882" s="4"/>
     </row>
-    <row r="883" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A883" s="6"/>
       <c r="B883" s="6"/>
       <c r="C883" s="4"/>
@@ -20758,7 +20786,7 @@
       <c r="S883" s="4"/>
       <c r="T883" s="4"/>
     </row>
-    <row r="884" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A884" s="6"/>
       <c r="B884" s="6"/>
       <c r="C884" s="4"/>
@@ -20780,7 +20808,7 @@
       <c r="S884" s="4"/>
       <c r="T884" s="4"/>
     </row>
-    <row r="885" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A885" s="6"/>
       <c r="B885" s="6"/>
       <c r="C885" s="4"/>
@@ -20802,7 +20830,7 @@
       <c r="S885" s="4"/>
       <c r="T885" s="4"/>
     </row>
-    <row r="886" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A886" s="6"/>
       <c r="B886" s="6"/>
       <c r="C886" s="4"/>
@@ -20824,7 +20852,7 @@
       <c r="S886" s="4"/>
       <c r="T886" s="4"/>
     </row>
-    <row r="887" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A887" s="6"/>
       <c r="B887" s="6"/>
       <c r="C887" s="4"/>
@@ -20846,7 +20874,7 @@
       <c r="S887" s="4"/>
       <c r="T887" s="4"/>
     </row>
-    <row r="888" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A888" s="6"/>
       <c r="B888" s="6"/>
       <c r="C888" s="4"/>
@@ -20868,7 +20896,7 @@
       <c r="S888" s="4"/>
       <c r="T888" s="4"/>
     </row>
-    <row r="889" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A889" s="6"/>
       <c r="B889" s="6"/>
       <c r="C889" s="4"/>
@@ -20890,7 +20918,7 @@
       <c r="S889" s="4"/>
       <c r="T889" s="4"/>
     </row>
-    <row r="890" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
       <c r="C890" s="4"/>
@@ -20912,7 +20940,7 @@
       <c r="S890" s="4"/>
       <c r="T890" s="4"/>
     </row>
-    <row r="891" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A891" s="6"/>
       <c r="B891" s="6"/>
       <c r="C891" s="4"/>
@@ -20934,7 +20962,7 @@
       <c r="S891" s="4"/>
       <c r="T891" s="4"/>
     </row>
-    <row r="892" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A892" s="6"/>
       <c r="B892" s="6"/>
       <c r="C892" s="4"/>
@@ -20956,7 +20984,7 @@
       <c r="S892" s="4"/>
       <c r="T892" s="4"/>
     </row>
-    <row r="893" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A893" s="6"/>
       <c r="B893" s="6"/>
       <c r="C893" s="4"/>
@@ -20978,7 +21006,7 @@
       <c r="S893" s="4"/>
       <c r="T893" s="4"/>
     </row>
-    <row r="894" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A894" s="6"/>
       <c r="B894" s="6"/>
       <c r="C894" s="4"/>
@@ -21000,7 +21028,7 @@
       <c r="S894" s="4"/>
       <c r="T894" s="4"/>
     </row>
-    <row r="895" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A895" s="6"/>
       <c r="B895" s="6"/>
       <c r="C895" s="4"/>
@@ -21022,7 +21050,7 @@
       <c r="S895" s="4"/>
       <c r="T895" s="4"/>
     </row>
-    <row r="896" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A896" s="6"/>
       <c r="B896" s="6"/>
       <c r="C896" s="4"/>
@@ -21044,7 +21072,7 @@
       <c r="S896" s="4"/>
       <c r="T896" s="4"/>
     </row>
-    <row r="897" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A897" s="6"/>
       <c r="B897" s="6"/>
       <c r="C897" s="4"/>
@@ -21066,7 +21094,7 @@
       <c r="S897" s="4"/>
       <c r="T897" s="4"/>
     </row>
-    <row r="898" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A898" s="6"/>
       <c r="B898" s="6"/>
       <c r="C898" s="4"/>
@@ -21088,7 +21116,7 @@
       <c r="S898" s="4"/>
       <c r="T898" s="4"/>
     </row>
-    <row r="899" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A899" s="6"/>
       <c r="B899" s="6"/>
       <c r="C899" s="4"/>
@@ -21110,7 +21138,7 @@
       <c r="S899" s="4"/>
       <c r="T899" s="4"/>
     </row>
-    <row r="900" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A900" s="6"/>
       <c r="B900" s="6"/>
       <c r="C900" s="4"/>
@@ -21132,7 +21160,7 @@
       <c r="S900" s="4"/>
       <c r="T900" s="4"/>
     </row>
-    <row r="901" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
       <c r="C901" s="4"/>
@@ -21154,7 +21182,7 @@
       <c r="S901" s="4"/>
       <c r="T901" s="4"/>
     </row>
-    <row r="902" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A902" s="6"/>
       <c r="B902" s="6"/>
       <c r="C902" s="4"/>
@@ -21176,7 +21204,7 @@
       <c r="S902" s="4"/>
       <c r="T902" s="4"/>
     </row>
-    <row r="903" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A903" s="6"/>
       <c r="B903" s="6"/>
       <c r="C903" s="4"/>
@@ -21198,7 +21226,7 @@
       <c r="S903" s="4"/>
       <c r="T903" s="4"/>
     </row>
-    <row r="904" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A904" s="6"/>
       <c r="B904" s="6"/>
       <c r="C904" s="4"/>
@@ -21220,7 +21248,7 @@
       <c r="S904" s="4"/>
       <c r="T904" s="4"/>
     </row>
-    <row r="905" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A905" s="6"/>
       <c r="B905" s="6"/>
       <c r="C905" s="4"/>
@@ -21242,7 +21270,7 @@
       <c r="S905" s="4"/>
       <c r="T905" s="4"/>
     </row>
-    <row r="906" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A906" s="6"/>
       <c r="B906" s="6"/>
       <c r="C906" s="4"/>
@@ -21264,7 +21292,7 @@
       <c r="S906" s="4"/>
       <c r="T906" s="4"/>
     </row>
-    <row r="907" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A907" s="6"/>
       <c r="B907" s="6"/>
       <c r="C907" s="4"/>
@@ -21286,7 +21314,7 @@
       <c r="S907" s="4"/>
       <c r="T907" s="4"/>
     </row>
-    <row r="908" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A908" s="6"/>
       <c r="B908" s="6"/>
       <c r="C908" s="4"/>
@@ -21308,7 +21336,7 @@
       <c r="S908" s="4"/>
       <c r="T908" s="4"/>
     </row>
-    <row r="909" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A909" s="6"/>
       <c r="B909" s="6"/>
       <c r="C909" s="4"/>
@@ -21330,7 +21358,7 @@
       <c r="S909" s="4"/>
       <c r="T909" s="4"/>
     </row>
-    <row r="910" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A910" s="6"/>
       <c r="B910" s="6"/>
       <c r="C910" s="4"/>
@@ -21352,7 +21380,7 @@
       <c r="S910" s="4"/>
       <c r="T910" s="4"/>
     </row>
-    <row r="911" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A911" s="6"/>
       <c r="B911" s="6"/>
       <c r="C911" s="4"/>
@@ -21374,7 +21402,7 @@
       <c r="S911" s="4"/>
       <c r="T911" s="4"/>
     </row>
-    <row r="912" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
       <c r="C912" s="4"/>
@@ -21396,7 +21424,7 @@
       <c r="S912" s="4"/>
       <c r="T912" s="4"/>
     </row>
-    <row r="913" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A913" s="6"/>
       <c r="B913" s="6"/>
       <c r="C913" s="4"/>
@@ -21418,7 +21446,7 @@
       <c r="S913" s="4"/>
       <c r="T913" s="4"/>
     </row>
-    <row r="914" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A914" s="6"/>
       <c r="B914" s="6"/>
       <c r="C914" s="4"/>
@@ -21440,7 +21468,7 @@
       <c r="S914" s="4"/>
       <c r="T914" s="4"/>
     </row>
-    <row r="915" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A915" s="6"/>
       <c r="B915" s="6"/>
       <c r="C915" s="4"/>
@@ -21462,7 +21490,7 @@
       <c r="S915" s="4"/>
       <c r="T915" s="4"/>
     </row>
-    <row r="916" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A916" s="6"/>
       <c r="B916" s="6"/>
       <c r="C916" s="4"/>
@@ -21484,7 +21512,7 @@
       <c r="S916" s="4"/>
       <c r="T916" s="4"/>
     </row>
-    <row r="917" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A917" s="6"/>
       <c r="B917" s="6"/>
       <c r="C917" s="4"/>
@@ -21506,7 +21534,7 @@
       <c r="S917" s="4"/>
       <c r="T917" s="4"/>
     </row>
-    <row r="918" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A918" s="6"/>
       <c r="B918" s="6"/>
       <c r="C918" s="4"/>
@@ -21528,7 +21556,7 @@
       <c r="S918" s="4"/>
       <c r="T918" s="4"/>
     </row>
-    <row r="919" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A919" s="6"/>
       <c r="B919" s="6"/>
       <c r="C919" s="4"/>
@@ -21550,7 +21578,7 @@
       <c r="S919" s="4"/>
       <c r="T919" s="4"/>
     </row>
-    <row r="920" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A920" s="6"/>
       <c r="B920" s="6"/>
       <c r="C920" s="4"/>
@@ -21572,7 +21600,7 @@
       <c r="S920" s="4"/>
       <c r="T920" s="4"/>
     </row>
-    <row r="921" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A921" s="6"/>
       <c r="B921" s="6"/>
       <c r="C921" s="4"/>
@@ -21594,7 +21622,7 @@
       <c r="S921" s="4"/>
       <c r="T921" s="4"/>
     </row>
-    <row r="922" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A922" s="6"/>
       <c r="B922" s="6"/>
       <c r="C922" s="4"/>
@@ -21616,7 +21644,7 @@
       <c r="S922" s="4"/>
       <c r="T922" s="4"/>
     </row>
-    <row r="923" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="6"/>
       <c r="B923" s="6"/>
       <c r="C923" s="4"/>
@@ -21638,7 +21666,7 @@
       <c r="S923" s="4"/>
       <c r="T923" s="4"/>
     </row>
-    <row r="924" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
       <c r="C924" s="4"/>
@@ -21660,7 +21688,7 @@
       <c r="S924" s="4"/>
       <c r="T924" s="4"/>
     </row>
-    <row r="925" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A925" s="6"/>
       <c r="B925" s="6"/>
       <c r="C925" s="4"/>
@@ -21682,7 +21710,7 @@
       <c r="S925" s="4"/>
       <c r="T925" s="4"/>
     </row>
-    <row r="926" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A926" s="6"/>
       <c r="B926" s="6"/>
       <c r="C926" s="4"/>
@@ -21704,7 +21732,7 @@
       <c r="S926" s="4"/>
       <c r="T926" s="4"/>
     </row>
-    <row r="927" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A927" s="6"/>
       <c r="B927" s="6"/>
       <c r="C927" s="4"/>
@@ -21726,7 +21754,7 @@
       <c r="S927" s="4"/>
       <c r="T927" s="4"/>
     </row>
-    <row r="928" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A928" s="6"/>
       <c r="B928" s="6"/>
       <c r="C928" s="4"/>
@@ -21748,7 +21776,7 @@
       <c r="S928" s="4"/>
       <c r="T928" s="4"/>
     </row>
-    <row r="929" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="6"/>
       <c r="B929" s="6"/>
       <c r="C929" s="4"/>
@@ -21770,7 +21798,7 @@
       <c r="S929" s="4"/>
       <c r="T929" s="4"/>
     </row>
-    <row r="930" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A930" s="6"/>
       <c r="B930" s="6"/>
       <c r="C930" s="4"/>
@@ -21792,7 +21820,7 @@
       <c r="S930" s="4"/>
       <c r="T930" s="4"/>
     </row>
-    <row r="931" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A931" s="6"/>
       <c r="B931" s="6"/>
       <c r="C931" s="4"/>
@@ -21814,7 +21842,7 @@
       <c r="S931" s="4"/>
       <c r="T931" s="4"/>
     </row>
-    <row r="932" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A932" s="6"/>
       <c r="B932" s="6"/>
       <c r="C932" s="4"/>
@@ -21836,7 +21864,7 @@
       <c r="S932" s="4"/>
       <c r="T932" s="4"/>
     </row>
-    <row r="933" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="6"/>
       <c r="B933" s="6"/>
       <c r="C933" s="4"/>
@@ -21858,7 +21886,7 @@
       <c r="S933" s="4"/>
       <c r="T933" s="4"/>
     </row>
-    <row r="934" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A934" s="6"/>
       <c r="B934" s="6"/>
       <c r="C934" s="4"/>
@@ -21880,7 +21908,7 @@
       <c r="S934" s="4"/>
       <c r="T934" s="4"/>
     </row>
-    <row r="935" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
       <c r="C935" s="4"/>
@@ -21902,7 +21930,7 @@
       <c r="S935" s="4"/>
       <c r="T935" s="4"/>
     </row>
-    <row r="936" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A936" s="6"/>
       <c r="B936" s="6"/>
       <c r="C936" s="4"/>
@@ -21924,7 +21952,7 @@
       <c r="S936" s="4"/>
       <c r="T936" s="4"/>
     </row>
-    <row r="937" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A937" s="6"/>
       <c r="B937" s="6"/>
       <c r="C937" s="4"/>
@@ -21946,7 +21974,7 @@
       <c r="S937" s="4"/>
       <c r="T937" s="4"/>
     </row>
-    <row r="938" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A938" s="6"/>
       <c r="B938" s="6"/>
       <c r="C938" s="4"/>
@@ -21968,7 +21996,7 @@
       <c r="S938" s="4"/>
       <c r="T938" s="4"/>
     </row>
-    <row r="939" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A939" s="6"/>
       <c r="B939" s="6"/>
       <c r="C939" s="4"/>
@@ -21990,7 +22018,7 @@
       <c r="S939" s="4"/>
       <c r="T939" s="4"/>
     </row>
-    <row r="940" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A940" s="6"/>
       <c r="B940" s="6"/>
       <c r="C940" s="4"/>
@@ -22012,7 +22040,7 @@
       <c r="S940" s="4"/>
       <c r="T940" s="4"/>
     </row>
-    <row r="941" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A941" s="6"/>
       <c r="B941" s="6"/>
       <c r="C941" s="4"/>
@@ -22034,7 +22062,7 @@
       <c r="S941" s="4"/>
       <c r="T941" s="4"/>
     </row>
-    <row r="942" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A942" s="6"/>
       <c r="B942" s="6"/>
       <c r="C942" s="4"/>
@@ -22056,7 +22084,7 @@
       <c r="S942" s="4"/>
       <c r="T942" s="4"/>
     </row>
-    <row r="943" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A943" s="6"/>
       <c r="B943" s="6"/>
       <c r="C943" s="4"/>
@@ -22078,7 +22106,7 @@
       <c r="S943" s="4"/>
       <c r="T943" s="4"/>
     </row>
-    <row r="944" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A944" s="6"/>
       <c r="B944" s="6"/>
       <c r="C944" s="4"/>
@@ -22100,7 +22128,7 @@
       <c r="S944" s="4"/>
       <c r="T944" s="4"/>
     </row>
-    <row r="945" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A945" s="6"/>
       <c r="B945" s="6"/>
       <c r="C945" s="4"/>
@@ -22122,7 +22150,7 @@
       <c r="S945" s="4"/>
       <c r="T945" s="4"/>
     </row>
-    <row r="946" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
       <c r="C946" s="4"/>
@@ -22144,7 +22172,7 @@
       <c r="S946" s="4"/>
       <c r="T946" s="4"/>
     </row>
-    <row r="947" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A947" s="6"/>
       <c r="B947" s="6"/>
       <c r="C947" s="4"/>
@@ -22166,7 +22194,7 @@
       <c r="S947" s="4"/>
       <c r="T947" s="4"/>
     </row>
-    <row r="948" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A948" s="6"/>
       <c r="B948" s="6"/>
       <c r="C948" s="4"/>
@@ -22188,7 +22216,7 @@
       <c r="S948" s="4"/>
       <c r="T948" s="4"/>
     </row>
-    <row r="949" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A949" s="6"/>
       <c r="B949" s="6"/>
       <c r="C949" s="4"/>
@@ -22210,7 +22238,7 @@
       <c r="S949" s="4"/>
       <c r="T949" s="4"/>
     </row>
-    <row r="950" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A950" s="6"/>
       <c r="B950" s="6"/>
       <c r="C950" s="4"/>
@@ -22232,7 +22260,7 @@
       <c r="S950" s="4"/>
       <c r="T950" s="4"/>
     </row>
-    <row r="951" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A951" s="6"/>
       <c r="B951" s="6"/>
       <c r="C951" s="4"/>
@@ -22254,7 +22282,7 @@
       <c r="S951" s="4"/>
       <c r="T951" s="4"/>
     </row>
-    <row r="952" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A952" s="6"/>
       <c r="B952" s="6"/>
       <c r="C952" s="4"/>
@@ -22276,7 +22304,7 @@
       <c r="S952" s="4"/>
       <c r="T952" s="4"/>
     </row>
-    <row r="953" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A953" s="6"/>
       <c r="B953" s="6"/>
       <c r="C953" s="4"/>
@@ -22298,7 +22326,7 @@
       <c r="S953" s="4"/>
       <c r="T953" s="4"/>
     </row>
-    <row r="954" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A954" s="6"/>
       <c r="B954" s="6"/>
       <c r="C954" s="4"/>
@@ -22320,7 +22348,7 @@
       <c r="S954" s="4"/>
       <c r="T954" s="4"/>
     </row>
-    <row r="955" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A955" s="6"/>
       <c r="B955" s="6"/>
       <c r="C955" s="4"/>
@@ -22342,7 +22370,7 @@
       <c r="S955" s="4"/>
       <c r="T955" s="4"/>
     </row>
-    <row r="956" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="6"/>
       <c r="B956" s="6"/>
       <c r="C956" s="4"/>
@@ -22364,7 +22392,7 @@
       <c r="S956" s="4"/>
       <c r="T956" s="4"/>
     </row>
-    <row r="957" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A957" s="6"/>
       <c r="B957" s="6"/>
       <c r="C957" s="4"/>
@@ -22386,7 +22414,7 @@
       <c r="S957" s="4"/>
       <c r="T957" s="4"/>
     </row>
-    <row r="958" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A958" s="6"/>
       <c r="B958" s="6"/>
       <c r="C958" s="4"/>
@@ -22408,7 +22436,7 @@
       <c r="S958" s="4"/>
       <c r="T958" s="4"/>
     </row>
-    <row r="959" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A959" s="6"/>
       <c r="B959" s="6"/>
       <c r="C959" s="4"/>
@@ -22430,7 +22458,7 @@
       <c r="S959" s="4"/>
       <c r="T959" s="4"/>
     </row>
-    <row r="960" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A960" s="6"/>
       <c r="B960" s="6"/>
       <c r="C960" s="4"/>
@@ -22452,7 +22480,7 @@
       <c r="S960" s="4"/>
       <c r="T960" s="4"/>
     </row>
-    <row r="961" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A961" s="6"/>
       <c r="B961" s="6"/>
       <c r="C961" s="4"/>
@@ -22474,7 +22502,7 @@
       <c r="S961" s="4"/>
       <c r="T961" s="4"/>
     </row>
-    <row r="962" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A962" s="6"/>
       <c r="B962" s="6"/>
       <c r="C962" s="4"/>
@@ -22496,7 +22524,7 @@
       <c r="S962" s="4"/>
       <c r="T962" s="4"/>
     </row>
-    <row r="963" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A963" s="6"/>
       <c r="B963" s="6"/>
       <c r="C963" s="4"/>
@@ -22518,7 +22546,7 @@
       <c r="S963" s="4"/>
       <c r="T963" s="4"/>
     </row>
-    <row r="964" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A964" s="6"/>
       <c r="B964" s="6"/>
       <c r="C964" s="4"/>
@@ -22540,7 +22568,7 @@
       <c r="S964" s="4"/>
       <c r="T964" s="4"/>
     </row>
-    <row r="965" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A965" s="6"/>
       <c r="B965" s="6"/>
       <c r="C965" s="4"/>
@@ -22562,7 +22590,7 @@
       <c r="S965" s="4"/>
       <c r="T965" s="4"/>
     </row>
-    <row r="966" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A966" s="6"/>
       <c r="B966" s="6"/>
       <c r="C966" s="4"/>
@@ -22584,7 +22612,7 @@
       <c r="S966" s="4"/>
       <c r="T966" s="4"/>
     </row>
-    <row r="967" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A967" s="6"/>
       <c r="B967" s="6"/>
       <c r="C967" s="4"/>
@@ -22606,7 +22634,7 @@
       <c r="S967" s="4"/>
       <c r="T967" s="4"/>
     </row>
-    <row r="968" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A968" s="6"/>
       <c r="B968" s="6"/>
       <c r="C968" s="4"/>
@@ -22628,7 +22656,7 @@
       <c r="S968" s="4"/>
       <c r="T968" s="4"/>
     </row>
-    <row r="969" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A969" s="6"/>
       <c r="B969" s="6"/>
       <c r="C969" s="4"/>
@@ -22650,7 +22678,7 @@
       <c r="S969" s="4"/>
       <c r="T969" s="4"/>
     </row>
-    <row r="970" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A970" s="6"/>
       <c r="B970" s="6"/>
       <c r="C970" s="4"/>
@@ -22672,7 +22700,7 @@
       <c r="S970" s="4"/>
       <c r="T970" s="4"/>
     </row>
-    <row r="971" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A971" s="6"/>
       <c r="B971" s="6"/>
       <c r="C971" s="4"/>
@@ -22694,7 +22722,7 @@
       <c r="S971" s="4"/>
       <c r="T971" s="4"/>
     </row>
-    <row r="972" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A972" s="6"/>
       <c r="B972" s="6"/>
       <c r="C972" s="4"/>
@@ -22716,7 +22744,7 @@
       <c r="S972" s="4"/>
       <c r="T972" s="4"/>
     </row>
-    <row r="973" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A973" s="6"/>
       <c r="B973" s="6"/>
       <c r="C973" s="4"/>
@@ -22738,7 +22766,7 @@
       <c r="S973" s="4"/>
       <c r="T973" s="4"/>
     </row>
-    <row r="974" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A974" s="6"/>
       <c r="B974" s="6"/>
       <c r="C974" s="4"/>
@@ -22760,7 +22788,7 @@
       <c r="S974" s="4"/>
       <c r="T974" s="4"/>
     </row>
-    <row r="975" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A975" s="6"/>
       <c r="B975" s="6"/>
       <c r="C975" s="4"/>
@@ -22782,7 +22810,7 @@
       <c r="S975" s="4"/>
       <c r="T975" s="4"/>
     </row>
-    <row r="976" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A976" s="6"/>
       <c r="B976" s="6"/>
       <c r="C976" s="4"/>
@@ -22804,7 +22832,7 @@
       <c r="S976" s="4"/>
       <c r="T976" s="4"/>
     </row>
-    <row r="977" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A977" s="6"/>
       <c r="B977" s="6"/>
       <c r="C977" s="4"/>
@@ -22826,7 +22854,7 @@
       <c r="S977" s="4"/>
       <c r="T977" s="4"/>
     </row>
-    <row r="978" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A978" s="6"/>
       <c r="B978" s="6"/>
       <c r="C978" s="4"/>
@@ -22848,7 +22876,7 @@
       <c r="S978" s="4"/>
       <c r="T978" s="4"/>
     </row>
-    <row r="979" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A979" s="6"/>
       <c r="B979" s="6"/>
       <c r="C979" s="4"/>
@@ -22870,7 +22898,7 @@
       <c r="S979" s="4"/>
       <c r="T979" s="4"/>
     </row>
-    <row r="980" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A980" s="6"/>
       <c r="B980" s="6"/>
       <c r="C980" s="4"/>
@@ -22892,7 +22920,7 @@
       <c r="S980" s="4"/>
       <c r="T980" s="4"/>
     </row>
-    <row r="981" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A981" s="6"/>
       <c r="B981" s="6"/>
       <c r="C981" s="4"/>
@@ -22914,7 +22942,7 @@
       <c r="S981" s="4"/>
       <c r="T981" s="4"/>
     </row>
-    <row r="982" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A982" s="6"/>
       <c r="B982" s="6"/>
       <c r="C982" s="4"/>
@@ -22936,7 +22964,7 @@
       <c r="S982" s="4"/>
       <c r="T982" s="4"/>
     </row>
-    <row r="983" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A983" s="6"/>
       <c r="B983" s="6"/>
       <c r="C983" s="4"/>
@@ -22958,7 +22986,7 @@
       <c r="S983" s="4"/>
       <c r="T983" s="4"/>
     </row>
-    <row r="984" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A984" s="6"/>
       <c r="B984" s="6"/>
       <c r="C984" s="4"/>
@@ -22980,7 +23008,7 @@
       <c r="S984" s="4"/>
       <c r="T984" s="4"/>
     </row>
-    <row r="985" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A985" s="6"/>
       <c r="B985" s="6"/>
       <c r="C985" s="4"/>
@@ -23002,7 +23030,7 @@
       <c r="S985" s="4"/>
       <c r="T985" s="4"/>
     </row>
-    <row r="986" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A986" s="6"/>
       <c r="B986" s="6"/>
       <c r="C986" s="4"/>
@@ -23024,7 +23052,7 @@
       <c r="S986" s="4"/>
       <c r="T986" s="4"/>
     </row>
-    <row r="987" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A987" s="6"/>
       <c r="B987" s="6"/>
       <c r="C987" s="4"/>
@@ -23046,7 +23074,7 @@
       <c r="S987" s="4"/>
       <c r="T987" s="4"/>
     </row>
-    <row r="988" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A988" s="6"/>
       <c r="B988" s="6"/>
       <c r="C988" s="4"/>
@@ -23068,7 +23096,7 @@
       <c r="S988" s="4"/>
       <c r="T988" s="4"/>
     </row>
-    <row r="989" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A989" s="6"/>
       <c r="B989" s="6"/>
       <c r="C989" s="4"/>
@@ -23090,7 +23118,7 @@
       <c r="S989" s="4"/>
       <c r="T989" s="4"/>
     </row>
-    <row r="990" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A990" s="6"/>
       <c r="B990" s="6"/>
       <c r="C990" s="4"/>
@@ -23112,7 +23140,7 @@
       <c r="S990" s="4"/>
       <c r="T990" s="4"/>
     </row>
-    <row r="991" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A991" s="6"/>
       <c r="B991" s="6"/>
       <c r="C991" s="4"/>
@@ -23134,7 +23162,7 @@
       <c r="S991" s="4"/>
       <c r="T991" s="4"/>
     </row>
-    <row r="992" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A992" s="6"/>
       <c r="B992" s="6"/>
       <c r="C992" s="4"/>
@@ -23156,7 +23184,7 @@
       <c r="S992" s="4"/>
       <c r="T992" s="4"/>
     </row>
-    <row r="993" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A993" s="6"/>
       <c r="B993" s="6"/>
       <c r="C993" s="4"/>
@@ -23178,7 +23206,7 @@
       <c r="S993" s="4"/>
       <c r="T993" s="4"/>
     </row>
-    <row r="994" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A994" s="6"/>
       <c r="B994" s="6"/>
       <c r="C994" s="4"/>
@@ -23200,7 +23228,7 @@
       <c r="S994" s="4"/>
       <c r="T994" s="4"/>
     </row>
-    <row r="995" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A995" s="6"/>
       <c r="B995" s="6"/>
       <c r="C995" s="4"/>
@@ -23222,7 +23250,7 @@
       <c r="S995" s="4"/>
       <c r="T995" s="4"/>
     </row>
-    <row r="996" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A996" s="6"/>
       <c r="B996" s="6"/>
       <c r="C996" s="4"/>
@@ -23244,7 +23272,7 @@
       <c r="S996" s="4"/>
       <c r="T996" s="4"/>
     </row>
-    <row r="997" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A997" s="6"/>
       <c r="B997" s="6"/>
       <c r="C997" s="4"/>
@@ -23266,7 +23294,7 @@
       <c r="S997" s="4"/>
       <c r="T997" s="4"/>
     </row>
-    <row r="998" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A998" s="6"/>
       <c r="B998" s="6"/>
       <c r="C998" s="4"/>
@@ -23288,7 +23316,7 @@
       <c r="S998" s="4"/>
       <c r="T998" s="4"/>
     </row>
-    <row r="999" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A999" s="6"/>
       <c r="B999" s="6"/>
       <c r="C999" s="4"/>
@@ -23310,7 +23338,7 @@
       <c r="S999" s="4"/>
       <c r="T999" s="4"/>
     </row>
-    <row r="1000" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="6"/>
       <c r="B1000" s="6"/>
       <c r="C1000" s="4"/>

--- a/data/gpt_examples/WVS_examples.xlsx
+++ b/data/gpt_examples/WVS_examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amy\Desktop\Green_Git\twelve-gpt-educational\data\gpt_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E88423-ECD0-4121-8CD1-3C691642727C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECEDA70-6AAF-43F2-8DAF-FD53AB627629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>user</t>
   </si>
@@ -28,46 +28,18 @@
     <t>assistant</t>
   </si>
   <si>
-    <t>Australia stands out for having a far above average value of self-expression compared to other countries. A contributing factor being that on average survey participants did not mentioned homosexuals as neighbors they would not like to have, indicating tolerance in Australian society. 
-Australia also has above average secular values compared to other countries. This was in part due to, on average, a low emphasis on encouragement of religious faith in children. Australia was found to be below averagely neutral compared to other countries, while scoring above average in fairness and tranquillity compared to other countries. On average, Australians believe that stealing property is never justifiable and are not worried about civil war, contributing to the fairness and tranquillity scores, respectively. Australia was found to be neither skeptical nor trusting of institutions compared to other countries in the same survey.</t>
-  </si>
-  <si>
-    <t>Now do the same thing with the following: ```Here is a statistical description of the core values of Australia. 
-Australia was found to have above average secular values compared to other countries in the same survey. In response to the question 'Here is a list of qualities that children can be encouraged to learn at home. Which, if any, do you consider to be especially important?', on average participants  'did not mentioned' children's religious faith as especially important. 
-Australia was found to value self-expression far above average compared to other countries in the same survey. In response to the question 'On this list are various groups of people. Could you please mention any that you would not like to have as neighbors?', on average participants  'did not mentioned' homosexuals as neighbors they would not like to have. 
-Australia was found to be below averagely neutral compared to other countries in the same survey. In response to the question 'Are you a member of a professional organization?', on average participants indicated that they 'don't belong' . 
-Australia was found to have an above average value of fairness compared to other countries in the same survey. In response to the question 'Please tell me for each of the following actions whether you think it can always be justified, never be justified, or something in between: Stealing property', on average participants indicated that it is 'almost never justifiable' . 
-Australia was found to be neither skeptical nor trusting compared to other countries in the same survey. 
-Australia was found to be above averagely tranquil compared to other countries in the same survey. In response to the question 'To what degree are you worried about the following situations? A civil war', on average participants indicated that they worry 'not at all' . 
+    <t>Now do the same thing with the following: ```Here is a statistical description of the core values of Peru. 
+According to the WVS, Peru was found to have neither an above nor a below average Traditional vs Secular Values score compared to other countries in the same wave. 
+According to the WVS, Peru was found to have below average Survival vs Self-expression Values score (e.i. value survival more compared to the average) compared to other countries in the same wave. In response to the question 'How important is work to you?', on average participants indicating that work is 'very important' . 
+According to the WVS, Peru was found to be averagely neutral compared to other countries in the same wave. 
+According to the WVS, Peru was found to have an average value of fairness compared to other countries in the same wave. 
+According to the WVS, Peru was found to be above averagely skeptical compared to other countries in the same wave. In response to the question 'How much confidence do you have in the parliament?', on average participants indicated that they have 'none at all' . 
+According to the WVS, Peru was found to be neither above nor below averagely tranquil compared to other countries in the same wave. 
 ```</t>
   </si>
   <si>
-    <t>Now do the same thing with the following: ```Here is a statistical description of the core values of Argentina. 
-Argentina was found to have neither strongly traditional nor strongly secular values compared to other countries in the same survey. 
-Argentina was found to have a above average value of self-expression compared to other countries in the same survey. In response to the question 'On this list are various groups of people. Could you please mention any that you would not like to have as neighbors?', on average participants  'did not mentioned' homosexuals as neighbors they would not like to have. 
-Argentina was found to be above averagely neutral compared to other countries in the same survey. In response to the question 'Are you a member of a consumer organization?', on average participants indicated that they 'are an inactive member' . 
-Argentina was found to value fairness averagely compared to other countries in the same survey. 
-Argentina was found to be above averagely skeptical compared to other countries in the same survey. In response to the question 'How much confidence do you have in political parties?', on average participants indicated that they have 'none at all' . 
-Argentina was found to be above averagely tranquil compared to other countries in the same survey. In response to the question 'To what degree are you worried about the following situations? A civil war', on average participants indicated that they worry 'not much' . 
-```</t>
-  </si>
-  <si>
-    <t>Argentina does not stand out in any particular metric. Argentina scores above average in self-expression compared to other countries. This was evident in the fact that survey participants, on average, did not mention homosexuals as neighbors they would not like to have, indicating a high level of tolerance.
-Argentina was found to have neither strongly traditional nor secular values, while scoring above average in neutrality, scepticism, and tranquillity compared to other countries in the same survey. This suggests a society with a moderate level of religiosity, low engagement in civic life, a lack of trust in institutions, but a relative lack of worry over civil unrest.</t>
-  </si>
-  <si>
-    <t>Egypt stands out with significantly above average traditional values compared to other countries. This is evident in the survey finding that God is considered "very important" by the average participant. Egypt is also strikingly high in skepticism, with citizens indicating a complete lack of confidence in political parties.
-Egypt has an above average survival-oriented values, as seen in participants strongly agreeing that work is a duty towards society. The country is above average in both neutrality and fairness compared to other countries. While participants are not very active in consumer organizations, they firmly believe that stealing property is “almost never justifiable”. Egypt holds an average level of tranquility compared to other countries in the survey.</t>
-  </si>
-  <si>
-    <t>Now do the same thing with the following: ```Here is a statistical description of the core values of Egypt. 
-Egypt was found to have far above average traditional values compared to other countries in the same survey. In response to the question 'How important is God in your life?', on average participants indicated God to be 'very important' in their life. 
-Egypt was found to have above average survival orientated values compared to other countries in the same survey. In response to the question 'Do you think that work is a duty towards society?', on average participants indicating that they 'agree strongly' . 
-Egypt was found to be above averagely neutral compared to other countries in the same survey. In response to the question 'Are you a member of a consumer organization?', on average participants indicated that they 'are an inactive member' . 
-Egypt was found to have an above average value of fairness compared to other countries in the same survey. In response to the question 'Please tell me for each of the following actions whether you think it can always be justified, never be justified, or something in between: Stealing property', on average participants indicated that it is 'almost never justifiable' . 
-Egypt was found to be far averagely skeptical compared to other countries in the same survey. In response to the question 'How much confidence do you have in political parties?', on average participants indicated that they have 'none at all' . 
-Egypt was found to be averagely tranquil compared to other countries in the same survey. 
-```</t>
+    <t>Peru was found to have below average Survival vs Self-expression Values score, suggesting that participants were more survival orientated. One contributing factor was that on average participants indicated that work was very important to them. Further, Peru was found to be above averagely skeptical, with participant on average indicating that they have no trust at all in parliament. 
+According to the WVS, Peru was found to have neither an above nor a below average Traditional vs Secular Values score, to be averagely neutral, to have an average value of fairness, and to be neither above nor below averagely tranquil compared to other countries in the same wave.</t>
   </si>
 </sst>
 </file>
@@ -1331,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1372,10 +1344,10 @@
     </row>
     <row r="2" spans="1:20" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1396,13 +1368,9 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="162" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1422,13 +1390,9 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="162" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
